--- a/backend/src/controllers/df2024.xlsx
+++ b/backend/src/controllers/df2024.xlsx
@@ -2484,10 +2484,10 @@
         <v>2705</v>
       </c>
       <c r="H72">
-        <v>2207</v>
+        <v>2176</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2513,10 +2513,10 @@
         <v>2743</v>
       </c>
       <c r="H73">
-        <v>2238</v>
+        <v>2176</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2542,10 +2542,10 @@
         <v>2781</v>
       </c>
       <c r="H74">
-        <v>2269</v>
+        <v>2176</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2558,23 +2558,23 @@
       <c r="C75">
         <v>74</v>
       </c>
-      <c r="D75">
-        <v>0</v>
+      <c r="D75" s="2">
+        <v>45400</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="F75">
-        <v>2176</v>
+        <v>2352</v>
       </c>
       <c r="G75">
         <v>2819</v>
       </c>
       <c r="H75">
-        <v>2300</v>
+        <v>2352</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2587,23 +2587,23 @@
       <c r="C76">
         <v>75</v>
       </c>
-      <c r="D76">
-        <v>0</v>
+      <c r="D76" s="2">
+        <v>45401</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F76">
-        <v>2176</v>
+        <v>2388</v>
       </c>
       <c r="G76">
         <v>2857</v>
       </c>
       <c r="H76">
-        <v>2331</v>
+        <v>2388</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2616,23 +2616,23 @@
       <c r="C77">
         <v>76</v>
       </c>
-      <c r="D77">
-        <v>0</v>
+      <c r="D77" s="2">
+        <v>45405</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F77">
-        <v>2176</v>
+        <v>2415</v>
       </c>
       <c r="G77">
         <v>2895</v>
       </c>
       <c r="H77">
-        <v>2362</v>
+        <v>2415</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2645,23 +2645,23 @@
       <c r="C78">
         <v>77</v>
       </c>
-      <c r="D78">
-        <v>0</v>
+      <c r="D78" s="2">
+        <v>45406</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F78">
-        <v>2176</v>
+        <v>2461</v>
       </c>
       <c r="G78">
         <v>2933</v>
       </c>
       <c r="H78">
-        <v>2393</v>
+        <v>2461</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2674,23 +2674,23 @@
       <c r="C79">
         <v>78</v>
       </c>
-      <c r="D79">
-        <v>0</v>
+      <c r="D79" s="2">
+        <v>45407</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F79">
-        <v>2176</v>
+        <v>2501</v>
       </c>
       <c r="G79">
         <v>2971</v>
       </c>
       <c r="H79">
-        <v>2424</v>
+        <v>2501</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2703,23 +2703,23 @@
       <c r="C80">
         <v>79</v>
       </c>
-      <c r="D80">
-        <v>0</v>
+      <c r="D80" s="2">
+        <v>45408</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F80">
-        <v>2176</v>
+        <v>2525</v>
       </c>
       <c r="G80">
         <v>3010</v>
       </c>
       <c r="H80">
-        <v>2455</v>
+        <v>2525</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2732,23 +2732,23 @@
       <c r="C81">
         <v>80</v>
       </c>
-      <c r="D81">
-        <v>0</v>
+      <c r="D81" s="2">
+        <v>45411</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F81">
-        <v>2176</v>
+        <v>2557</v>
       </c>
       <c r="G81">
         <v>3048</v>
       </c>
       <c r="H81">
-        <v>2486</v>
+        <v>2557</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2761,23 +2761,23 @@
       <c r="C82">
         <v>81</v>
       </c>
-      <c r="D82">
-        <v>0</v>
+      <c r="D82" s="2">
+        <v>45412</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F82">
-        <v>2176</v>
+        <v>2613</v>
       </c>
       <c r="G82">
         <v>3086</v>
       </c>
       <c r="H82">
-        <v>2517</v>
+        <v>2613</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2790,23 +2790,23 @@
       <c r="C83">
         <v>82</v>
       </c>
-      <c r="D83">
-        <v>0</v>
+      <c r="D83" s="2">
+        <v>45414</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F83">
-        <v>2176</v>
+        <v>2637</v>
       </c>
       <c r="G83">
         <v>3124</v>
       </c>
       <c r="H83">
-        <v>2548</v>
+        <v>2637</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2819,23 +2819,23 @@
       <c r="C84">
         <v>83</v>
       </c>
-      <c r="D84">
-        <v>0</v>
+      <c r="D84" s="2">
+        <v>45415</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F84">
-        <v>2176</v>
+        <v>2671</v>
       </c>
       <c r="G84">
         <v>3162</v>
       </c>
       <c r="H84">
-        <v>2579</v>
+        <v>2671</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2848,23 +2848,23 @@
       <c r="C85">
         <v>84</v>
       </c>
-      <c r="D85">
-        <v>0</v>
+      <c r="D85" s="2">
+        <v>45418</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F85">
-        <v>2176</v>
+        <v>2692</v>
       </c>
       <c r="G85">
         <v>3200</v>
       </c>
       <c r="H85">
-        <v>2610</v>
+        <v>2692</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2877,23 +2877,23 @@
       <c r="C86">
         <v>85</v>
       </c>
-      <c r="D86">
-        <v>0</v>
+      <c r="D86" s="2">
+        <v>45419</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F86">
-        <v>2176</v>
+        <v>2729</v>
       </c>
       <c r="G86">
         <v>3238</v>
       </c>
       <c r="H86">
-        <v>2641</v>
+        <v>2729</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2906,23 +2906,23 @@
       <c r="C87">
         <v>86</v>
       </c>
-      <c r="D87">
-        <v>0</v>
+      <c r="D87" s="2">
+        <v>45420</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F87">
-        <v>2176</v>
+        <v>2790</v>
       </c>
       <c r="G87">
         <v>3276</v>
       </c>
       <c r="H87">
-        <v>2672</v>
+        <v>2790</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2935,23 +2935,23 @@
       <c r="C88">
         <v>87</v>
       </c>
-      <c r="D88">
-        <v>0</v>
+      <c r="D88" s="2">
+        <v>45421</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="F88">
-        <v>2176</v>
+        <v>2856</v>
       </c>
       <c r="G88">
         <v>3314</v>
       </c>
       <c r="H88">
-        <v>2703</v>
+        <v>2856</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2964,23 +2964,23 @@
       <c r="C89">
         <v>88</v>
       </c>
-      <c r="D89">
-        <v>0</v>
+      <c r="D89" s="2">
+        <v>45422</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F89">
-        <v>2176</v>
+        <v>2890</v>
       </c>
       <c r="G89">
         <v>3352</v>
       </c>
       <c r="H89">
-        <v>2734</v>
+        <v>2890</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -2993,23 +2993,23 @@
       <c r="C90">
         <v>89</v>
       </c>
-      <c r="D90">
-        <v>0</v>
+      <c r="D90" s="2">
+        <v>45425</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F90">
-        <v>2176</v>
+        <v>2921</v>
       </c>
       <c r="G90">
         <v>3390</v>
       </c>
       <c r="H90">
-        <v>2765</v>
+        <v>2921</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3029,16 +3029,16 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>2176</v>
+        <v>2921</v>
       </c>
       <c r="G91">
         <v>3429</v>
       </c>
       <c r="H91">
-        <v>2796</v>
+        <v>2921</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3058,16 +3058,16 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>2176</v>
+        <v>2921</v>
       </c>
       <c r="G92">
         <v>3467</v>
       </c>
       <c r="H92">
-        <v>2827</v>
+        <v>2921</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3087,16 +3087,16 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>2176</v>
+        <v>2921</v>
       </c>
       <c r="G93">
         <v>3505</v>
       </c>
       <c r="H93">
-        <v>2858</v>
+        <v>2921</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3116,16 +3116,16 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>2176</v>
+        <v>2921</v>
       </c>
       <c r="G94">
         <v>3543</v>
       </c>
       <c r="H94">
-        <v>2889</v>
+        <v>2921</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3145,16 +3145,16 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>2176</v>
+        <v>2921</v>
       </c>
       <c r="G95">
         <v>3581</v>
       </c>
       <c r="H95">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3167,23 +3167,23 @@
       <c r="C96">
         <v>95</v>
       </c>
-      <c r="D96">
-        <v>0</v>
+      <c r="D96" s="2">
+        <v>45433</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="F96">
-        <v>2176</v>
+        <v>3102</v>
       </c>
       <c r="G96">
         <v>3619</v>
       </c>
       <c r="H96">
-        <v>2951</v>
+        <v>3102</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3196,23 +3196,23 @@
       <c r="C97">
         <v>96</v>
       </c>
-      <c r="D97">
-        <v>0</v>
+      <c r="D97" s="2">
+        <v>45434</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F97">
-        <v>2176</v>
+        <v>3141</v>
       </c>
       <c r="G97">
         <v>3657</v>
       </c>
       <c r="H97">
-        <v>2982</v>
+        <v>3141</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3225,23 +3225,23 @@
       <c r="C98">
         <v>97</v>
       </c>
-      <c r="D98">
-        <v>0</v>
+      <c r="D98" s="2">
+        <v>45435</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F98">
-        <v>2176</v>
+        <v>3163</v>
       </c>
       <c r="G98">
         <v>3695</v>
       </c>
       <c r="H98">
-        <v>3013</v>
+        <v>3163</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3254,23 +3254,23 @@
       <c r="C99">
         <v>98</v>
       </c>
-      <c r="D99">
-        <v>0</v>
+      <c r="D99" s="2">
+        <v>45436</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F99">
-        <v>2176</v>
+        <v>3188</v>
       </c>
       <c r="G99">
         <v>3733</v>
       </c>
       <c r="H99">
-        <v>3044</v>
+        <v>3188</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3283,23 +3283,23 @@
       <c r="C100">
         <v>99</v>
       </c>
-      <c r="D100">
-        <v>0</v>
+      <c r="D100" s="2">
+        <v>45439</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F100">
-        <v>2176</v>
+        <v>3207</v>
       </c>
       <c r="G100">
         <v>3771</v>
       </c>
       <c r="H100">
-        <v>3075</v>
+        <v>3207</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3312,23 +3312,23 @@
       <c r="C101">
         <v>100</v>
       </c>
-      <c r="D101">
-        <v>0</v>
+      <c r="D101" s="2">
+        <v>45440</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F101">
-        <v>2176</v>
+        <v>3232</v>
       </c>
       <c r="G101">
         <v>3810</v>
       </c>
       <c r="H101">
-        <v>3106</v>
+        <v>3232</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3341,23 +3341,23 @@
       <c r="C102">
         <v>101</v>
       </c>
-      <c r="D102">
-        <v>0</v>
+      <c r="D102" s="2">
+        <v>45441</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F102">
-        <v>2176</v>
+        <v>3287</v>
       </c>
       <c r="G102">
         <v>3848</v>
       </c>
       <c r="H102">
-        <v>3137</v>
+        <v>3287</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3370,23 +3370,23 @@
       <c r="C103">
         <v>102</v>
       </c>
-      <c r="D103">
-        <v>0</v>
+      <c r="D103" s="2">
+        <v>45442</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F103">
-        <v>2176</v>
+        <v>3326</v>
       </c>
       <c r="G103">
         <v>3886</v>
       </c>
       <c r="H103">
-        <v>3168</v>
+        <v>3326</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3399,23 +3399,23 @@
       <c r="C104">
         <v>103</v>
       </c>
-      <c r="D104">
-        <v>0</v>
+      <c r="D104" s="2">
+        <v>45443</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="F104">
-        <v>2176</v>
+        <v>3362</v>
       </c>
       <c r="G104">
         <v>3924</v>
       </c>
       <c r="H104">
-        <v>3199</v>
+        <v>3362</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3428,23 +3428,23 @@
       <c r="C105">
         <v>104</v>
       </c>
-      <c r="D105">
-        <v>0</v>
+      <c r="D105" s="2">
+        <v>45446</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F105">
-        <v>2176</v>
+        <v>3373</v>
       </c>
       <c r="G105">
         <v>3962</v>
       </c>
       <c r="H105">
-        <v>3230</v>
+        <v>3373</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3457,23 +3457,23 @@
       <c r="C106">
         <v>105</v>
       </c>
-      <c r="D106">
-        <v>0</v>
+      <c r="D106" s="2">
+        <v>45447</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F106">
-        <v>2176</v>
+        <v>3403</v>
       </c>
       <c r="G106">
         <v>4000</v>
       </c>
       <c r="H106">
-        <v>3261</v>
+        <v>3403</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3486,23 +3486,23 @@
       <c r="C107">
         <v>106</v>
       </c>
-      <c r="D107">
-        <v>0</v>
+      <c r="D107" s="2">
+        <v>45448</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F107">
-        <v>2176</v>
+        <v>3453</v>
       </c>
       <c r="G107">
         <v>4038</v>
       </c>
       <c r="H107">
-        <v>3292</v>
+        <v>3453</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3515,23 +3515,23 @@
       <c r="C108">
         <v>107</v>
       </c>
-      <c r="D108">
-        <v>0</v>
+      <c r="D108" s="2">
+        <v>45449</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F108">
-        <v>2176</v>
+        <v>3484</v>
       </c>
       <c r="G108">
         <v>4076</v>
       </c>
       <c r="H108">
-        <v>3323</v>
+        <v>3484</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3544,23 +3544,23 @@
       <c r="C109">
         <v>108</v>
       </c>
-      <c r="D109">
-        <v>0</v>
+      <c r="D109" s="2">
+        <v>45450</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F109">
-        <v>2176</v>
+        <v>3502</v>
       </c>
       <c r="G109">
         <v>4114</v>
       </c>
       <c r="H109">
-        <v>3354</v>
+        <v>3502</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3573,23 +3573,23 @@
       <c r="C110">
         <v>109</v>
       </c>
-      <c r="D110">
-        <v>0</v>
+      <c r="D110" s="2">
+        <v>45453</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F110">
-        <v>2176</v>
+        <v>3532</v>
       </c>
       <c r="G110">
         <v>4152</v>
       </c>
       <c r="H110">
-        <v>3385</v>
+        <v>3532</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3602,23 +3602,23 @@
       <c r="C111">
         <v>110</v>
       </c>
-      <c r="D111">
-        <v>0</v>
+      <c r="D111" s="2">
+        <v>45454</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F111">
-        <v>2176</v>
+        <v>3573</v>
       </c>
       <c r="G111">
         <v>4190</v>
       </c>
       <c r="H111">
-        <v>3416</v>
+        <v>3573</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3631,23 +3631,23 @@
       <c r="C112">
         <v>111</v>
       </c>
-      <c r="D112">
-        <v>0</v>
+      <c r="D112" s="2">
+        <v>45455</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="F112">
-        <v>2176</v>
+        <v>3651</v>
       </c>
       <c r="G112">
         <v>4229</v>
       </c>
       <c r="H112">
-        <v>3447</v>
+        <v>3651</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>2176</v>
+        <v>3651</v>
       </c>
       <c r="G113">
         <v>4267</v>
       </c>
       <c r="H113">
-        <v>3478</v>
+        <v>3651</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3696,16 +3696,16 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>2176</v>
+        <v>3651</v>
       </c>
       <c r="G114">
         <v>4305</v>
       </c>
       <c r="H114">
-        <v>3509</v>
+        <v>3651</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3725,16 +3725,16 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>2176</v>
+        <v>3651</v>
       </c>
       <c r="G115">
         <v>4343</v>
       </c>
       <c r="H115">
-        <v>3540</v>
+        <v>3651</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3754,16 +3754,16 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>2176</v>
+        <v>3651</v>
       </c>
       <c r="G116">
         <v>4381</v>
       </c>
       <c r="H116">
-        <v>3571</v>
+        <v>3651</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3783,16 +3783,16 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>2176</v>
+        <v>3651</v>
       </c>
       <c r="G117">
         <v>4419</v>
       </c>
       <c r="H117">
-        <v>3602</v>
+        <v>3651</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3805,23 +3805,23 @@
       <c r="C118">
         <v>117</v>
       </c>
-      <c r="D118">
-        <v>0</v>
+      <c r="D118" s="2">
+        <v>45464</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="F118">
-        <v>2176</v>
+        <v>3793</v>
       </c>
       <c r="G118">
         <v>4457</v>
       </c>
       <c r="H118">
-        <v>3633</v>
+        <v>3793</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3834,23 +3834,23 @@
       <c r="C119">
         <v>118</v>
       </c>
-      <c r="D119">
-        <v>0</v>
+      <c r="D119" s="2">
+        <v>45467</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F119">
-        <v>2176</v>
+        <v>3809</v>
       </c>
       <c r="G119">
         <v>4495</v>
       </c>
       <c r="H119">
-        <v>3664</v>
+        <v>3809</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3863,23 +3863,23 @@
       <c r="C120">
         <v>119</v>
       </c>
-      <c r="D120">
-        <v>0</v>
+      <c r="D120" s="2">
+        <v>45468</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F120">
-        <v>2176</v>
+        <v>3850</v>
       </c>
       <c r="G120">
         <v>4533</v>
       </c>
       <c r="H120">
-        <v>3695</v>
+        <v>3850</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3892,23 +3892,23 @@
       <c r="C121">
         <v>120</v>
       </c>
-      <c r="D121">
-        <v>0</v>
+      <c r="D121" s="2">
+        <v>45469</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F121">
-        <v>2176</v>
+        <v>3910</v>
       </c>
       <c r="G121">
         <v>4571</v>
       </c>
       <c r="H121">
-        <v>3726</v>
+        <v>3910</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3921,23 +3921,23 @@
       <c r="C122">
         <v>121</v>
       </c>
-      <c r="D122">
-        <v>0</v>
+      <c r="D122" s="2">
+        <v>45470</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F122">
-        <v>2176</v>
+        <v>3953</v>
       </c>
       <c r="G122">
         <v>4610</v>
       </c>
       <c r="H122">
-        <v>3757</v>
+        <v>3953</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -3950,23 +3950,23 @@
       <c r="C123">
         <v>122</v>
       </c>
-      <c r="D123">
-        <v>0</v>
+      <c r="D123" s="2">
+        <v>45471</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F123">
-        <v>2176</v>
+        <v>3968</v>
       </c>
       <c r="G123">
         <v>4648</v>
       </c>
       <c r="H123">
-        <v>3788</v>
+        <v>3968</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -3979,23 +3979,23 @@
       <c r="C124">
         <v>123</v>
       </c>
-      <c r="D124">
-        <v>0</v>
+      <c r="D124" s="2">
+        <v>45474</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F124">
-        <v>2176</v>
+        <v>3978</v>
       </c>
       <c r="G124">
         <v>4686</v>
       </c>
       <c r="H124">
-        <v>3819</v>
+        <v>3978</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4008,23 +4008,23 @@
       <c r="C125">
         <v>124</v>
       </c>
-      <c r="D125">
-        <v>0</v>
+      <c r="D125" s="2">
+        <v>45475</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F125">
-        <v>2176</v>
+        <v>3994</v>
       </c>
       <c r="G125">
         <v>4724</v>
       </c>
       <c r="H125">
-        <v>3850</v>
+        <v>3994</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4037,23 +4037,23 @@
       <c r="C126">
         <v>125</v>
       </c>
-      <c r="D126">
-        <v>0</v>
+      <c r="D126" s="2">
+        <v>45476</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F126">
-        <v>2176</v>
+        <v>4025</v>
       </c>
       <c r="G126">
         <v>4762</v>
       </c>
       <c r="H126">
-        <v>3881</v>
+        <v>4025</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4066,23 +4066,23 @@
       <c r="C127">
         <v>126</v>
       </c>
-      <c r="D127">
-        <v>0</v>
+      <c r="D127" s="2">
+        <v>45477</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F127">
-        <v>2176</v>
+        <v>4039</v>
       </c>
       <c r="G127">
         <v>4800</v>
       </c>
       <c r="H127">
-        <v>3912</v>
+        <v>4039</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4095,23 +4095,23 @@
       <c r="C128">
         <v>127</v>
       </c>
-      <c r="D128">
-        <v>0</v>
+      <c r="D128" s="2">
+        <v>45478</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F128">
-        <v>2176</v>
+        <v>4074</v>
       </c>
       <c r="G128">
         <v>4838</v>
       </c>
       <c r="H128">
-        <v>3943</v>
+        <v>4074</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4124,23 +4124,23 @@
       <c r="C129">
         <v>128</v>
       </c>
-      <c r="D129">
-        <v>0</v>
+      <c r="D129" s="2">
+        <v>45481</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F129">
-        <v>2176</v>
+        <v>4077</v>
       </c>
       <c r="G129">
         <v>4876</v>
       </c>
       <c r="H129">
-        <v>3974</v>
+        <v>4077</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4153,23 +4153,23 @@
       <c r="C130">
         <v>129</v>
       </c>
-      <c r="D130">
-        <v>0</v>
+      <c r="D130" s="2">
+        <v>45482</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F130">
-        <v>2176</v>
+        <v>4096</v>
       </c>
       <c r="G130">
         <v>4914</v>
       </c>
       <c r="H130">
-        <v>4005</v>
+        <v>4096</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4182,23 +4182,23 @@
       <c r="C131">
         <v>130</v>
       </c>
-      <c r="D131">
-        <v>0</v>
+      <c r="D131" s="2">
+        <v>45483</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F131">
-        <v>2176</v>
+        <v>4116</v>
       </c>
       <c r="G131">
         <v>4952</v>
       </c>
       <c r="H131">
-        <v>4036</v>
+        <v>4116</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4218,16 +4218,16 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>2176</v>
+        <v>4116</v>
       </c>
       <c r="G132">
         <v>4990</v>
       </c>
       <c r="H132">
-        <v>4067</v>
+        <v>4116</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4247,16 +4247,16 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>2176</v>
+        <v>4116</v>
       </c>
       <c r="G133">
         <v>5029</v>
       </c>
       <c r="H133">
-        <v>4098</v>
+        <v>4116</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4276,16 +4276,16 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>2176</v>
+        <v>4116</v>
       </c>
       <c r="G134">
         <v>5067</v>
       </c>
       <c r="H134">
-        <v>4129</v>
+        <v>4116</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4305,16 +4305,16 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>2176</v>
+        <v>4116</v>
       </c>
       <c r="G135">
         <v>5105</v>
       </c>
       <c r="H135">
-        <v>4160</v>
+        <v>4116</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4334,16 +4334,16 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>2176</v>
+        <v>4116</v>
       </c>
       <c r="G136">
         <v>5143</v>
       </c>
       <c r="H136">
-        <v>4191</v>
+        <v>4116</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4356,23 +4356,23 @@
       <c r="C137">
         <v>136</v>
       </c>
-      <c r="D137">
-        <v>0</v>
+      <c r="D137" s="2">
+        <v>45492</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="F137">
-        <v>2176</v>
+        <v>4218</v>
       </c>
       <c r="G137">
         <v>5181</v>
       </c>
       <c r="H137">
-        <v>4222</v>
+        <v>4218</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4385,23 +4385,23 @@
       <c r="C138">
         <v>137</v>
       </c>
-      <c r="D138">
-        <v>0</v>
+      <c r="D138" s="2">
+        <v>45495</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F138">
-        <v>2176</v>
+        <v>4237</v>
       </c>
       <c r="G138">
         <v>5219</v>
       </c>
       <c r="H138">
-        <v>4253</v>
+        <v>4237</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4414,23 +4414,23 @@
       <c r="C139">
         <v>138</v>
       </c>
-      <c r="D139">
-        <v>0</v>
+      <c r="D139" s="2">
+        <v>45496</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F139">
-        <v>2176</v>
+        <v>4268</v>
       </c>
       <c r="G139">
         <v>5257</v>
       </c>
       <c r="H139">
-        <v>4284</v>
+        <v>4268</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4443,23 +4443,23 @@
       <c r="C140">
         <v>139</v>
       </c>
-      <c r="D140">
-        <v>0</v>
+      <c r="D140" s="2">
+        <v>45497</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="F140">
-        <v>2176</v>
+        <v>4329</v>
       </c>
       <c r="G140">
         <v>5295</v>
       </c>
       <c r="H140">
-        <v>4315</v>
+        <v>4329</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4472,23 +4472,23 @@
       <c r="C141">
         <v>140</v>
       </c>
-      <c r="D141">
-        <v>0</v>
+      <c r="D141" s="2">
+        <v>45498</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F141">
-        <v>2176</v>
+        <v>4361</v>
       </c>
       <c r="G141">
         <v>5333</v>
       </c>
       <c r="H141">
-        <v>4346</v>
+        <v>4361</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4501,23 +4501,23 @@
       <c r="C142">
         <v>141</v>
       </c>
-      <c r="D142">
-        <v>0</v>
+      <c r="D142" s="2">
+        <v>45499</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F142">
-        <v>2176</v>
+        <v>4396</v>
       </c>
       <c r="G142">
         <v>5371</v>
       </c>
       <c r="H142">
-        <v>4377</v>
+        <v>4396</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4530,23 +4530,23 @@
       <c r="C143">
         <v>142</v>
       </c>
-      <c r="D143">
-        <v>0</v>
+      <c r="D143" s="2">
+        <v>45502</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F143">
-        <v>2176</v>
+        <v>4422</v>
       </c>
       <c r="G143">
         <v>5410</v>
       </c>
       <c r="H143">
-        <v>4408</v>
+        <v>4422</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4559,23 +4559,23 @@
       <c r="C144">
         <v>143</v>
       </c>
-      <c r="D144">
-        <v>0</v>
+      <c r="D144" s="2">
+        <v>45503</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F144">
-        <v>2176</v>
+        <v>4438</v>
       </c>
       <c r="G144">
         <v>5448</v>
       </c>
       <c r="H144">
-        <v>4439</v>
+        <v>4438</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4588,23 +4588,23 @@
       <c r="C145">
         <v>144</v>
       </c>
-      <c r="D145">
-        <v>0</v>
+      <c r="D145" s="2">
+        <v>45504</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F145">
-        <v>2176</v>
+        <v>4469</v>
       </c>
       <c r="G145">
         <v>5486</v>
       </c>
       <c r="H145">
-        <v>4470</v>
+        <v>4469</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4617,23 +4617,23 @@
       <c r="C146">
         <v>145</v>
       </c>
-      <c r="D146">
-        <v>0</v>
+      <c r="D146" s="2">
+        <v>45505</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F146">
-        <v>2176</v>
+        <v>4484</v>
       </c>
       <c r="G146">
         <v>5524</v>
       </c>
       <c r="H146">
-        <v>4501</v>
+        <v>4484</v>
       </c>
       <c r="I146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4646,23 +4646,23 @@
       <c r="C147">
         <v>146</v>
       </c>
-      <c r="D147">
-        <v>0</v>
+      <c r="D147" s="2">
+        <v>45506</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F147">
-        <v>2176</v>
+        <v>4502</v>
       </c>
       <c r="G147">
         <v>5562</v>
       </c>
       <c r="H147">
-        <v>4532</v>
+        <v>4502</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4675,23 +4675,23 @@
       <c r="C148">
         <v>147</v>
       </c>
-      <c r="D148">
-        <v>0</v>
+      <c r="D148" s="2">
+        <v>45509</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F148">
-        <v>2176</v>
+        <v>4512</v>
       </c>
       <c r="G148">
         <v>5600</v>
       </c>
       <c r="H148">
-        <v>4563</v>
+        <v>4512</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -4704,23 +4704,23 @@
       <c r="C149">
         <v>148</v>
       </c>
-      <c r="D149">
-        <v>0</v>
+      <c r="D149" s="2">
+        <v>45510</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F149">
-        <v>2176</v>
+        <v>4525</v>
       </c>
       <c r="G149">
         <v>5638</v>
       </c>
       <c r="H149">
-        <v>4594</v>
+        <v>4525</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -4733,23 +4733,23 @@
       <c r="C150">
         <v>149</v>
       </c>
-      <c r="D150">
-        <v>0</v>
+      <c r="D150" s="2">
+        <v>45511</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F150">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G150">
         <v>5676</v>
       </c>
       <c r="H150">
-        <v>4625</v>
+        <v>4539</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -4769,16 +4769,16 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G151">
         <v>5714</v>
       </c>
       <c r="H151">
-        <v>4656</v>
+        <v>4539</v>
       </c>
       <c r="I151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -4798,13 +4798,13 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G152">
         <v>5752</v>
       </c>
       <c r="H152">
-        <v>4687</v>
+        <v>4569</v>
       </c>
       <c r="I152">
         <v>1</v>
@@ -4827,13 +4827,13 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G153">
         <v>5790</v>
       </c>
       <c r="H153">
-        <v>4718</v>
+        <v>4599</v>
       </c>
       <c r="I153">
         <v>1</v>
@@ -4856,13 +4856,13 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G154">
         <v>5829</v>
       </c>
       <c r="H154">
-        <v>4749</v>
+        <v>4629</v>
       </c>
       <c r="I154">
         <v>1</v>
@@ -4885,13 +4885,13 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G155">
         <v>5867</v>
       </c>
       <c r="H155">
-        <v>4780</v>
+        <v>4659</v>
       </c>
       <c r="I155">
         <v>1</v>
@@ -4914,13 +4914,13 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G156">
         <v>5905</v>
       </c>
       <c r="H156">
-        <v>4811</v>
+        <v>4689</v>
       </c>
       <c r="I156">
         <v>1</v>
@@ -4943,13 +4943,13 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G157">
         <v>5943</v>
       </c>
       <c r="H157">
-        <v>4842</v>
+        <v>4719</v>
       </c>
       <c r="I157">
         <v>1</v>
@@ -4972,13 +4972,13 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G158">
         <v>5981</v>
       </c>
       <c r="H158">
-        <v>4873</v>
+        <v>4749</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -5001,13 +5001,13 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G159">
         <v>6019</v>
       </c>
       <c r="H159">
-        <v>4904</v>
+        <v>4779</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -5030,13 +5030,13 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G160">
         <v>6057</v>
       </c>
       <c r="H160">
-        <v>4935</v>
+        <v>4809</v>
       </c>
       <c r="I160">
         <v>1</v>
@@ -5059,13 +5059,13 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G161">
         <v>6095</v>
       </c>
       <c r="H161">
-        <v>4966</v>
+        <v>4839</v>
       </c>
       <c r="I161">
         <v>1</v>
@@ -5088,13 +5088,13 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G162">
         <v>6133</v>
       </c>
       <c r="H162">
-        <v>4997</v>
+        <v>4869</v>
       </c>
       <c r="I162">
         <v>1</v>
@@ -5117,13 +5117,13 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G163">
         <v>6171</v>
       </c>
       <c r="H163">
-        <v>5028</v>
+        <v>4899</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -5146,13 +5146,13 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G164">
         <v>6210</v>
       </c>
       <c r="H164">
-        <v>5059</v>
+        <v>4929</v>
       </c>
       <c r="I164">
         <v>1</v>
@@ -5175,13 +5175,13 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G165">
         <v>6248</v>
       </c>
       <c r="H165">
-        <v>5090</v>
+        <v>4959</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -5204,13 +5204,13 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G166">
         <v>6286</v>
       </c>
       <c r="H166">
-        <v>5121</v>
+        <v>4989</v>
       </c>
       <c r="I166">
         <v>1</v>
@@ -5233,13 +5233,13 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G167">
         <v>6324</v>
       </c>
       <c r="H167">
-        <v>5152</v>
+        <v>5019</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -5262,13 +5262,13 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G168">
         <v>6362</v>
       </c>
       <c r="H168">
-        <v>5183</v>
+        <v>5049</v>
       </c>
       <c r="I168">
         <v>1</v>
@@ -5291,13 +5291,13 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G169">
         <v>6400</v>
       </c>
       <c r="H169">
-        <v>5214</v>
+        <v>5079</v>
       </c>
       <c r="I169">
         <v>1</v>
@@ -5320,13 +5320,13 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G170">
         <v>6438</v>
       </c>
       <c r="H170">
-        <v>5245</v>
+        <v>5109</v>
       </c>
       <c r="I170">
         <v>1</v>
@@ -5349,13 +5349,13 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G171">
         <v>6476</v>
       </c>
       <c r="H171">
-        <v>5276</v>
+        <v>5139</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -5378,13 +5378,13 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G172">
         <v>6514</v>
       </c>
       <c r="H172">
-        <v>5307</v>
+        <v>5169</v>
       </c>
       <c r="I172">
         <v>1</v>
@@ -5407,13 +5407,13 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G173">
         <v>6552</v>
       </c>
       <c r="H173">
-        <v>5338</v>
+        <v>5199</v>
       </c>
       <c r="I173">
         <v>1</v>
@@ -5436,13 +5436,13 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G174">
         <v>6590</v>
       </c>
       <c r="H174">
-        <v>5369</v>
+        <v>5229</v>
       </c>
       <c r="I174">
         <v>1</v>
@@ -5465,13 +5465,13 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G175">
         <v>6629</v>
       </c>
       <c r="H175">
-        <v>5400</v>
+        <v>5259</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -5494,13 +5494,13 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G176">
         <v>6667</v>
       </c>
       <c r="H176">
-        <v>5431</v>
+        <v>5289</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -5523,13 +5523,13 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G177">
         <v>6705</v>
       </c>
       <c r="H177">
-        <v>5462</v>
+        <v>5319</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -5552,13 +5552,13 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G178">
         <v>6743</v>
       </c>
       <c r="H178">
-        <v>5493</v>
+        <v>5349</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -5581,13 +5581,13 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G179">
         <v>6781</v>
       </c>
       <c r="H179">
-        <v>5524</v>
+        <v>5379</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -5610,13 +5610,13 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G180">
         <v>6819</v>
       </c>
       <c r="H180">
-        <v>5555</v>
+        <v>5409</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -5639,13 +5639,13 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G181">
         <v>6857</v>
       </c>
       <c r="H181">
-        <v>5586</v>
+        <v>5439</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -5668,13 +5668,13 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G182">
         <v>6895</v>
       </c>
       <c r="H182">
-        <v>5617</v>
+        <v>5469</v>
       </c>
       <c r="I182">
         <v>1</v>
@@ -5697,13 +5697,13 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G183">
         <v>6933</v>
       </c>
       <c r="H183">
-        <v>5648</v>
+        <v>5499</v>
       </c>
       <c r="I183">
         <v>1</v>
@@ -5726,13 +5726,13 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G184">
         <v>6971</v>
       </c>
       <c r="H184">
-        <v>5679</v>
+        <v>5529</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -5755,13 +5755,13 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G185">
         <v>7010</v>
       </c>
       <c r="H185">
-        <v>5710</v>
+        <v>5559</v>
       </c>
       <c r="I185">
         <v>1</v>
@@ -5784,13 +5784,13 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G186">
         <v>7048</v>
       </c>
       <c r="H186">
-        <v>5741</v>
+        <v>5589</v>
       </c>
       <c r="I186">
         <v>1</v>
@@ -5813,13 +5813,13 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G187">
         <v>7086</v>
       </c>
       <c r="H187">
-        <v>5772</v>
+        <v>5619</v>
       </c>
       <c r="I187">
         <v>1</v>
@@ -5842,13 +5842,13 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G188">
         <v>7124</v>
       </c>
       <c r="H188">
-        <v>5803</v>
+        <v>5649</v>
       </c>
       <c r="I188">
         <v>1</v>
@@ -5871,13 +5871,13 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G189">
         <v>7162</v>
       </c>
       <c r="H189">
-        <v>5834</v>
+        <v>5679</v>
       </c>
       <c r="I189">
         <v>1</v>
@@ -5900,13 +5900,13 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G190">
         <v>7200</v>
       </c>
       <c r="H190">
-        <v>5865</v>
+        <v>5709</v>
       </c>
       <c r="I190">
         <v>1</v>
@@ -5929,13 +5929,13 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G191">
         <v>7238</v>
       </c>
       <c r="H191">
-        <v>5896</v>
+        <v>5739</v>
       </c>
       <c r="I191">
         <v>1</v>
@@ -5958,13 +5958,13 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G192">
         <v>7276</v>
       </c>
       <c r="H192">
-        <v>5927</v>
+        <v>5769</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -5987,13 +5987,13 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G193">
         <v>7314</v>
       </c>
       <c r="H193">
-        <v>5958</v>
+        <v>5799</v>
       </c>
       <c r="I193">
         <v>1</v>
@@ -6016,13 +6016,13 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G194">
         <v>7352</v>
       </c>
       <c r="H194">
-        <v>5989</v>
+        <v>5829</v>
       </c>
       <c r="I194">
         <v>1</v>
@@ -6045,13 +6045,13 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G195">
         <v>7390</v>
       </c>
       <c r="H195">
-        <v>6020</v>
+        <v>5859</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -6074,13 +6074,13 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G196">
         <v>7429</v>
       </c>
       <c r="H196">
-        <v>6051</v>
+        <v>5889</v>
       </c>
       <c r="I196">
         <v>1</v>
@@ -6103,13 +6103,13 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G197">
         <v>7467</v>
       </c>
       <c r="H197">
-        <v>6082</v>
+        <v>5919</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -6132,13 +6132,13 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G198">
         <v>7505</v>
       </c>
       <c r="H198">
-        <v>6113</v>
+        <v>5949</v>
       </c>
       <c r="I198">
         <v>1</v>
@@ -6161,13 +6161,13 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G199">
         <v>7543</v>
       </c>
       <c r="H199">
-        <v>6144</v>
+        <v>5979</v>
       </c>
       <c r="I199">
         <v>1</v>
@@ -6190,13 +6190,13 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G200">
         <v>7581</v>
       </c>
       <c r="H200">
-        <v>6175</v>
+        <v>6009</v>
       </c>
       <c r="I200">
         <v>1</v>
@@ -6219,13 +6219,13 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G201">
         <v>7619</v>
       </c>
       <c r="H201">
-        <v>6206</v>
+        <v>6039</v>
       </c>
       <c r="I201">
         <v>1</v>
@@ -6248,13 +6248,13 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G202">
         <v>7657</v>
       </c>
       <c r="H202">
-        <v>6237</v>
+        <v>6069</v>
       </c>
       <c r="I202">
         <v>1</v>
@@ -6277,13 +6277,13 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G203">
         <v>7695</v>
       </c>
       <c r="H203">
-        <v>6268</v>
+        <v>6099</v>
       </c>
       <c r="I203">
         <v>1</v>
@@ -6306,13 +6306,13 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G204">
         <v>7733</v>
       </c>
       <c r="H204">
-        <v>6299</v>
+        <v>6129</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -6335,13 +6335,13 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G205">
         <v>7771</v>
       </c>
       <c r="H205">
-        <v>6330</v>
+        <v>6159</v>
       </c>
       <c r="I205">
         <v>1</v>
@@ -6364,13 +6364,13 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G206">
         <v>7810</v>
       </c>
       <c r="H206">
-        <v>6361</v>
+        <v>6189</v>
       </c>
       <c r="I206">
         <v>1</v>
@@ -6393,13 +6393,13 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G207">
         <v>7848</v>
       </c>
       <c r="H207">
-        <v>6392</v>
+        <v>6219</v>
       </c>
       <c r="I207">
         <v>1</v>
@@ -6422,13 +6422,13 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G208">
         <v>7886</v>
       </c>
       <c r="H208">
-        <v>6423</v>
+        <v>6249</v>
       </c>
       <c r="I208">
         <v>1</v>
@@ -6451,13 +6451,13 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G209">
         <v>7924</v>
       </c>
       <c r="H209">
-        <v>6454</v>
+        <v>6279</v>
       </c>
       <c r="I209">
         <v>1</v>
@@ -6480,13 +6480,13 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G210">
         <v>7962</v>
       </c>
       <c r="H210">
-        <v>6485</v>
+        <v>6309</v>
       </c>
       <c r="I210">
         <v>1</v>
@@ -6509,13 +6509,13 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G211">
         <v>8000</v>
       </c>
       <c r="H211">
-        <v>6516</v>
+        <v>6339</v>
       </c>
       <c r="I211">
         <v>1</v>
@@ -6538,13 +6538,13 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G212">
         <v>8038</v>
       </c>
       <c r="H212">
-        <v>6547</v>
+        <v>6369</v>
       </c>
       <c r="I212">
         <v>1</v>
@@ -6567,13 +6567,13 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G213">
         <v>8076</v>
       </c>
       <c r="H213">
-        <v>6578</v>
+        <v>6399</v>
       </c>
       <c r="I213">
         <v>1</v>
@@ -6596,13 +6596,13 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G214">
         <v>8114</v>
       </c>
       <c r="H214">
-        <v>6609</v>
+        <v>6429</v>
       </c>
       <c r="I214">
         <v>1</v>
@@ -6625,13 +6625,13 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G215">
         <v>8152</v>
       </c>
       <c r="H215">
-        <v>6640</v>
+        <v>6459</v>
       </c>
       <c r="I215">
         <v>1</v>
@@ -6654,13 +6654,13 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G216">
         <v>8190</v>
       </c>
       <c r="H216">
-        <v>6671</v>
+        <v>6489</v>
       </c>
       <c r="I216">
         <v>1</v>
@@ -6683,13 +6683,13 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G217">
         <v>8229</v>
       </c>
       <c r="H217">
-        <v>6702</v>
+        <v>6519</v>
       </c>
       <c r="I217">
         <v>1</v>
@@ -6712,13 +6712,13 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G218">
         <v>8267</v>
       </c>
       <c r="H218">
-        <v>6733</v>
+        <v>6549</v>
       </c>
       <c r="I218">
         <v>1</v>
@@ -6741,13 +6741,13 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G219">
         <v>8305</v>
       </c>
       <c r="H219">
-        <v>6764</v>
+        <v>6579</v>
       </c>
       <c r="I219">
         <v>1</v>
@@ -6770,13 +6770,13 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G220">
         <v>8343</v>
       </c>
       <c r="H220">
-        <v>6795</v>
+        <v>6609</v>
       </c>
       <c r="I220">
         <v>1</v>
@@ -6799,13 +6799,13 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G221">
         <v>8381</v>
       </c>
       <c r="H221">
-        <v>6826</v>
+        <v>6639</v>
       </c>
       <c r="I221">
         <v>1</v>
@@ -6828,13 +6828,13 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G222">
         <v>8419</v>
       </c>
       <c r="H222">
-        <v>6857</v>
+        <v>6669</v>
       </c>
       <c r="I222">
         <v>1</v>
@@ -6857,13 +6857,13 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G223">
         <v>8457</v>
       </c>
       <c r="H223">
-        <v>6888</v>
+        <v>6699</v>
       </c>
       <c r="I223">
         <v>1</v>
@@ -6886,13 +6886,13 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G224">
         <v>8495</v>
       </c>
       <c r="H224">
-        <v>6919</v>
+        <v>6729</v>
       </c>
       <c r="I224">
         <v>1</v>
@@ -6915,13 +6915,13 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G225">
         <v>8533</v>
       </c>
       <c r="H225">
-        <v>6950</v>
+        <v>6759</v>
       </c>
       <c r="I225">
         <v>1</v>
@@ -6944,13 +6944,13 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G226">
         <v>8571</v>
       </c>
       <c r="H226">
-        <v>6981</v>
+        <v>6789</v>
       </c>
       <c r="I226">
         <v>1</v>
@@ -6973,13 +6973,13 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G227">
         <v>8610</v>
       </c>
       <c r="H227">
-        <v>7012</v>
+        <v>6819</v>
       </c>
       <c r="I227">
         <v>1</v>
@@ -7002,13 +7002,13 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G228">
         <v>8648</v>
       </c>
       <c r="H228">
-        <v>7043</v>
+        <v>6849</v>
       </c>
       <c r="I228">
         <v>1</v>
@@ -7031,13 +7031,13 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G229">
         <v>8686</v>
       </c>
       <c r="H229">
-        <v>7074</v>
+        <v>6879</v>
       </c>
       <c r="I229">
         <v>1</v>
@@ -7060,13 +7060,13 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G230">
         <v>8724</v>
       </c>
       <c r="H230">
-        <v>7105</v>
+        <v>6909</v>
       </c>
       <c r="I230">
         <v>1</v>
@@ -7089,13 +7089,13 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G231">
         <v>8762</v>
       </c>
       <c r="H231">
-        <v>7136</v>
+        <v>6939</v>
       </c>
       <c r="I231">
         <v>1</v>
@@ -7118,13 +7118,13 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G232">
         <v>8800</v>
       </c>
       <c r="H232">
-        <v>7167</v>
+        <v>6969</v>
       </c>
       <c r="I232">
         <v>1</v>
@@ -7147,13 +7147,13 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G233">
         <v>8838</v>
       </c>
       <c r="H233">
-        <v>7198</v>
+        <v>6999</v>
       </c>
       <c r="I233">
         <v>1</v>
@@ -7176,13 +7176,13 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G234">
         <v>8876</v>
       </c>
       <c r="H234">
-        <v>7229</v>
+        <v>7029</v>
       </c>
       <c r="I234">
         <v>1</v>
@@ -7205,13 +7205,13 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G235">
         <v>8914</v>
       </c>
       <c r="H235">
-        <v>7260</v>
+        <v>7059</v>
       </c>
       <c r="I235">
         <v>1</v>
@@ -7234,13 +7234,13 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G236">
         <v>8952</v>
       </c>
       <c r="H236">
-        <v>7291</v>
+        <v>7089</v>
       </c>
       <c r="I236">
         <v>1</v>
@@ -7263,13 +7263,13 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G237">
         <v>8990</v>
       </c>
       <c r="H237">
-        <v>7322</v>
+        <v>7119</v>
       </c>
       <c r="I237">
         <v>1</v>
@@ -7292,13 +7292,13 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G238">
         <v>9029</v>
       </c>
       <c r="H238">
-        <v>7353</v>
+        <v>7149</v>
       </c>
       <c r="I238">
         <v>1</v>
@@ -7321,13 +7321,13 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G239">
         <v>9067</v>
       </c>
       <c r="H239">
-        <v>7384</v>
+        <v>7179</v>
       </c>
       <c r="I239">
         <v>1</v>
@@ -7350,13 +7350,13 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G240">
         <v>9105</v>
       </c>
       <c r="H240">
-        <v>7415</v>
+        <v>7209</v>
       </c>
       <c r="I240">
         <v>1</v>
@@ -7379,13 +7379,13 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G241">
         <v>9143</v>
       </c>
       <c r="H241">
-        <v>7446</v>
+        <v>7239</v>
       </c>
       <c r="I241">
         <v>1</v>
@@ -7408,13 +7408,13 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G242">
         <v>9181</v>
       </c>
       <c r="H242">
-        <v>7477</v>
+        <v>7269</v>
       </c>
       <c r="I242">
         <v>1</v>
@@ -7437,13 +7437,13 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G243">
         <v>9219</v>
       </c>
       <c r="H243">
-        <v>7508</v>
+        <v>7299</v>
       </c>
       <c r="I243">
         <v>1</v>
@@ -7466,13 +7466,13 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G244">
         <v>9257</v>
       </c>
       <c r="H244">
-        <v>7539</v>
+        <v>7329</v>
       </c>
       <c r="I244">
         <v>1</v>
@@ -7495,13 +7495,13 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G245">
         <v>9295</v>
       </c>
       <c r="H245">
-        <v>7570</v>
+        <v>7359</v>
       </c>
       <c r="I245">
         <v>1</v>
@@ -7524,13 +7524,13 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G246">
         <v>9333</v>
       </c>
       <c r="H246">
-        <v>7601</v>
+        <v>7389</v>
       </c>
       <c r="I246">
         <v>1</v>
@@ -7553,13 +7553,13 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G247">
         <v>9371</v>
       </c>
       <c r="H247">
-        <v>7632</v>
+        <v>7419</v>
       </c>
       <c r="I247">
         <v>1</v>
@@ -7582,13 +7582,13 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G248">
         <v>9410</v>
       </c>
       <c r="H248">
-        <v>7663</v>
+        <v>7449</v>
       </c>
       <c r="I248">
         <v>1</v>
@@ -7611,13 +7611,13 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G249">
         <v>9448</v>
       </c>
       <c r="H249">
-        <v>7694</v>
+        <v>7479</v>
       </c>
       <c r="I249">
         <v>1</v>
@@ -7640,13 +7640,13 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G250">
         <v>9486</v>
       </c>
       <c r="H250">
-        <v>7725</v>
+        <v>7509</v>
       </c>
       <c r="I250">
         <v>1</v>
@@ -7669,13 +7669,13 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G251">
         <v>9524</v>
       </c>
       <c r="H251">
-        <v>7756</v>
+        <v>7539</v>
       </c>
       <c r="I251">
         <v>1</v>
@@ -7698,13 +7698,13 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G252">
         <v>9562</v>
       </c>
       <c r="H252">
-        <v>7787</v>
+        <v>7569</v>
       </c>
       <c r="I252">
         <v>1</v>
@@ -7727,13 +7727,13 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>2176</v>
+        <v>4539</v>
       </c>
       <c r="G253">
         <v>9600</v>
       </c>
       <c r="H253">
-        <v>7818</v>
+        <v>7599</v>
       </c>
       <c r="I253">
         <v>1</v>

--- a/backend/src/controllers/df2024.xlsx
+++ b/backend/src/controllers/df2024.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I253"/>
+  <dimension ref="A1:I251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -436,25 +436,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>45293</v>
+        <v>45659</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>45293</v>
+        <v>45659</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H2">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -465,25 +465,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>45294</v>
+        <v>45660</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
-        <v>45294</v>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="H3">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -494,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>45295</v>
+        <v>45664</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -506,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="H4">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -523,28 +523,28 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>45296</v>
+        <v>45665</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
-        <v>45296</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="H5">
-        <v>126</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -552,28 +552,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>45299</v>
+        <v>45666</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
-        <v>45299</v>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>190</v>
+        <v>154</v>
       </c>
       <c r="H6">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -581,28 +581,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>45300</v>
+        <v>45667</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
-        <v>45300</v>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>185</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="H7">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -610,28 +610,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>45301</v>
+        <v>45670</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="2">
-        <v>45301</v>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>227</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>267</v>
+        <v>215</v>
       </c>
       <c r="H8">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -639,28 +639,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>45302</v>
+        <v>45671</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="2">
-        <v>45302</v>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>273</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>305</v>
+        <v>246</v>
       </c>
       <c r="H9">
-        <v>273</v>
+        <v>18</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -668,28 +668,28 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>45303</v>
+        <v>45672</v>
       </c>
       <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2">
-        <v>45303</v>
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>301</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>343</v>
+        <v>246</v>
       </c>
       <c r="H10">
-        <v>301</v>
+        <v>18</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -697,28 +697,28 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>45306</v>
+        <v>45673</v>
       </c>
       <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2">
-        <v>45306</v>
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>341</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>381</v>
+        <v>246</v>
       </c>
       <c r="H11">
-        <v>341</v>
+        <v>18</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -726,10 +726,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>45307</v>
+        <v>45674</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>341</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>419</v>
+        <v>246</v>
       </c>
       <c r="H12">
-        <v>341</v>
+        <v>18</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -755,10 +755,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>45308</v>
+        <v>45677</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -767,16 +767,16 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>341</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>457</v>
+        <v>246</v>
       </c>
       <c r="H13">
-        <v>341</v>
+        <v>18</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -784,10 +784,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="2">
-        <v>45309</v>
+        <v>45678</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -796,16 +796,16 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>341</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>495</v>
+        <v>246</v>
       </c>
       <c r="H14">
-        <v>341</v>
+        <v>18</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -813,7 +813,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>45310</v>
+        <v>45679</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>341</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>533</v>
+        <v>430</v>
       </c>
       <c r="H15">
-        <v>341</v>
+        <v>33</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -842,7 +842,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2">
-        <v>45313</v>
+        <v>45680</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -854,16 +854,16 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>341</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>571</v>
+        <v>461</v>
       </c>
       <c r="H16">
-        <v>341</v>
+        <v>36</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -871,28 +871,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="2">
-        <v>45314</v>
+        <v>45681</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
-      <c r="D17" s="2">
-        <v>45314</v>
+      <c r="D17">
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>583</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>610</v>
+        <v>492</v>
       </c>
       <c r="H17">
-        <v>583</v>
+        <v>38</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -900,28 +900,28 @@
         <v>16</v>
       </c>
       <c r="B18" s="2">
-        <v>45315</v>
+        <v>45684</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
-      <c r="D18" s="2">
-        <v>45315</v>
+      <c r="D18">
+        <v>0</v>
       </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>522</v>
+      </c>
+      <c r="H18">
         <v>40</v>
       </c>
-      <c r="F18">
-        <v>623</v>
-      </c>
-      <c r="G18">
-        <v>648</v>
-      </c>
-      <c r="H18">
-        <v>623</v>
-      </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -929,28 +929,28 @@
         <v>17</v>
       </c>
       <c r="B19" s="2">
-        <v>45316</v>
+        <v>45685</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
-      <c r="D19" s="2">
-        <v>45316</v>
+      <c r="D19">
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>662</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>686</v>
+        <v>553</v>
       </c>
       <c r="H19">
-        <v>662</v>
+        <v>42</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -958,28 +958,28 @@
         <v>18</v>
       </c>
       <c r="B20" s="2">
-        <v>45317</v>
+        <v>45686</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
-      <c r="D20" s="2">
-        <v>45317</v>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>687</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>724</v>
+        <v>584</v>
       </c>
       <c r="H20">
-        <v>687</v>
+        <v>44</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -987,28 +987,28 @@
         <v>19</v>
       </c>
       <c r="B21" s="2">
-        <v>45320</v>
+        <v>45687</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
-      <c r="D21" s="2">
-        <v>45320</v>
+      <c r="D21">
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>710</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>762</v>
+        <v>614</v>
       </c>
       <c r="H21">
-        <v>710</v>
+        <v>46</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1016,28 +1016,28 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>45321</v>
+        <v>45688</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
-      <c r="D22" s="2">
-        <v>45321</v>
+      <c r="D22">
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>734</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>800</v>
+        <v>645</v>
       </c>
       <c r="H22">
-        <v>734</v>
+        <v>48</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1045,28 +1045,28 @@
         <v>21</v>
       </c>
       <c r="B23" s="2">
-        <v>45322</v>
+        <v>45691</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
-      <c r="D23" s="2">
-        <v>45322</v>
+      <c r="D23">
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>828</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>838</v>
+        <v>676</v>
       </c>
       <c r="H23">
-        <v>828</v>
+        <v>50</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1074,28 +1074,28 @@
         <v>22</v>
       </c>
       <c r="B24" s="2">
-        <v>45323</v>
+        <v>45692</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
-      <c r="D24" s="2">
-        <v>45323</v>
+      <c r="D24">
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>848</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>876</v>
+        <v>707</v>
       </c>
       <c r="H24">
-        <v>848</v>
+        <v>52</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1103,28 +1103,28 @@
         <v>23</v>
       </c>
       <c r="B25" s="2">
-        <v>45324</v>
+        <v>45693</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
-      <c r="D25" s="2">
-        <v>45324</v>
+      <c r="D25">
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>863</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>914</v>
+        <v>737</v>
       </c>
       <c r="H25">
-        <v>863</v>
+        <v>54</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1132,28 +1132,28 @@
         <v>24</v>
       </c>
       <c r="B26" s="2">
-        <v>45327</v>
+        <v>45694</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
-      <c r="D26" s="2">
-        <v>45327</v>
+      <c r="D26">
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>876</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>952</v>
+        <v>768</v>
       </c>
       <c r="H26">
-        <v>876</v>
+        <v>56</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1161,28 +1161,28 @@
         <v>25</v>
       </c>
       <c r="B27" s="2">
-        <v>45328</v>
+        <v>45695</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
-      <c r="D27" s="2">
-        <v>45328</v>
+      <c r="D27">
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>920</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>990</v>
+        <v>799</v>
       </c>
       <c r="H27">
-        <v>920</v>
+        <v>58</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1190,28 +1190,28 @@
         <v>26</v>
       </c>
       <c r="B28" s="2">
-        <v>45329</v>
+        <v>45698</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
-      <c r="D28" s="2">
-        <v>45329</v>
+      <c r="D28">
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>969</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>1029</v>
+        <v>829</v>
       </c>
       <c r="H28">
-        <v>969</v>
+        <v>60</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1219,28 +1219,28 @@
         <v>27</v>
       </c>
       <c r="B29" s="2">
-        <v>45330</v>
+        <v>45699</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
-      <c r="D29" s="2">
-        <v>45330</v>
+      <c r="D29">
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1002</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>1067</v>
+        <v>860</v>
       </c>
       <c r="H29">
-        <v>1002</v>
+        <v>62</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1248,28 +1248,28 @@
         <v>28</v>
       </c>
       <c r="B30" s="2">
-        <v>45331</v>
+        <v>45700</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
-      <c r="D30" s="2">
-        <v>45331</v>
+      <c r="D30">
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1034</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>1105</v>
+        <v>891</v>
       </c>
       <c r="H30">
-        <v>1034</v>
+        <v>64</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1277,28 +1277,28 @@
         <v>29</v>
       </c>
       <c r="B31" s="2">
-        <v>45336</v>
+        <v>45701</v>
       </c>
       <c r="C31">
-        <v>30</v>
-      </c>
-      <c r="D31" s="2">
-        <v>45336</v>
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1052</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>1143</v>
+        <v>891</v>
       </c>
       <c r="H31">
-        <v>1052</v>
+        <v>64</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1306,10 +1306,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="2">
-        <v>45337</v>
+        <v>45702</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1318,16 +1318,16 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1052</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>1181</v>
+        <v>891</v>
       </c>
       <c r="H32">
-        <v>1052</v>
+        <v>64</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1335,10 +1335,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2">
-        <v>45338</v>
+        <v>45705</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1052</v>
+        <v>5</v>
       </c>
       <c r="G33">
-        <v>1219</v>
+        <v>891</v>
       </c>
       <c r="H33">
-        <v>1052</v>
+        <v>64</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1364,10 +1364,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="2">
-        <v>45341</v>
+        <v>45706</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1052</v>
+        <v>5</v>
       </c>
       <c r="G34">
-        <v>1257</v>
+        <v>891</v>
       </c>
       <c r="H34">
-        <v>1052</v>
+        <v>64</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1393,10 +1393,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="2">
-        <v>45342</v>
+        <v>45707</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1405,16 +1405,16 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1052</v>
+        <v>5</v>
       </c>
       <c r="G35">
-        <v>1295</v>
+        <v>891</v>
       </c>
       <c r="H35">
-        <v>1052</v>
+        <v>64</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1422,7 +1422,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2">
-        <v>45343</v>
+        <v>45708</v>
       </c>
       <c r="C36">
         <v>35</v>
@@ -1434,16 +1434,16 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1052</v>
+        <v>5</v>
       </c>
       <c r="G36">
-        <v>1333</v>
+        <v>1075</v>
       </c>
       <c r="H36">
-        <v>1052</v>
+        <v>79</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1451,28 +1451,28 @@
         <v>35</v>
       </c>
       <c r="B37" s="2">
-        <v>45344</v>
+        <v>45709</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
-      <c r="D37" s="2">
-        <v>45344</v>
+      <c r="D37">
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1189</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>1371</v>
+        <v>1106</v>
       </c>
       <c r="H37">
-        <v>1189</v>
+        <v>82</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1480,28 +1480,28 @@
         <v>36</v>
       </c>
       <c r="B38" s="2">
-        <v>45345</v>
+        <v>45712</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
-      <c r="D38" s="2">
-        <v>45345</v>
+      <c r="D38">
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1205</v>
+        <v>5</v>
       </c>
       <c r="G38">
-        <v>1410</v>
+        <v>1137</v>
       </c>
       <c r="H38">
-        <v>1205</v>
+        <v>84</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1509,28 +1509,28 @@
         <v>37</v>
       </c>
       <c r="B39" s="2">
-        <v>45348</v>
+        <v>45713</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
-      <c r="D39" s="2">
-        <v>45348</v>
+      <c r="D39">
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1213</v>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>1448</v>
+        <v>1167</v>
       </c>
       <c r="H39">
-        <v>1213</v>
+        <v>86</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>38</v>
       </c>
       <c r="B40" s="2">
-        <v>45349</v>
+        <v>45714</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
-      <c r="D40" s="2">
-        <v>45349</v>
+      <c r="D40">
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1249</v>
+        <v>5</v>
       </c>
       <c r="G40">
-        <v>1486</v>
+        <v>1198</v>
       </c>
       <c r="H40">
-        <v>1249</v>
+        <v>88</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1567,28 +1567,28 @@
         <v>39</v>
       </c>
       <c r="B41" s="2">
-        <v>45350</v>
+        <v>45715</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
-      <c r="D41" s="2">
-        <v>45350</v>
+      <c r="D41">
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1282</v>
+        <v>5</v>
       </c>
       <c r="G41">
-        <v>1524</v>
+        <v>1229</v>
       </c>
       <c r="H41">
-        <v>1282</v>
+        <v>90</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1596,28 +1596,28 @@
         <v>40</v>
       </c>
       <c r="B42" s="2">
-        <v>45351</v>
+        <v>45716</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
-      <c r="D42" s="2">
-        <v>45351</v>
+      <c r="D42">
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1328</v>
+        <v>5</v>
       </c>
       <c r="G42">
-        <v>1562</v>
+        <v>1260</v>
       </c>
       <c r="H42">
-        <v>1328</v>
+        <v>92</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1625,28 +1625,28 @@
         <v>41</v>
       </c>
       <c r="B43" s="2">
-        <v>45352</v>
+        <v>45721</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
-      <c r="D43" s="2">
-        <v>45352</v>
+      <c r="D43">
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1340</v>
+        <v>5</v>
       </c>
       <c r="G43">
-        <v>1600</v>
+        <v>1290</v>
       </c>
       <c r="H43">
-        <v>1340</v>
+        <v>94</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1654,28 +1654,28 @@
         <v>42</v>
       </c>
       <c r="B44" s="2">
-        <v>45355</v>
+        <v>45722</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
-      <c r="D44" s="2">
-        <v>45355</v>
+      <c r="D44">
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1355</v>
+        <v>5</v>
       </c>
       <c r="G44">
-        <v>1638</v>
+        <v>1321</v>
       </c>
       <c r="H44">
-        <v>1355</v>
+        <v>96</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1683,28 +1683,28 @@
         <v>43</v>
       </c>
       <c r="B45" s="2">
-        <v>45356</v>
+        <v>45723</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
-      <c r="D45" s="2">
-        <v>45356</v>
+      <c r="D45">
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1373</v>
+        <v>5</v>
       </c>
       <c r="G45">
-        <v>1676</v>
+        <v>1352</v>
       </c>
       <c r="H45">
-        <v>1373</v>
+        <v>98</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1712,28 +1712,28 @@
         <v>44</v>
       </c>
       <c r="B46" s="2">
-        <v>45357</v>
+        <v>45726</v>
       </c>
       <c r="C46">
         <v>45</v>
       </c>
-      <c r="D46" s="2">
-        <v>45357</v>
+      <c r="D46">
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1420</v>
+        <v>5</v>
       </c>
       <c r="G46">
-        <v>1714</v>
+        <v>1382</v>
       </c>
       <c r="H46">
-        <v>1420</v>
+        <v>100</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1741,28 +1741,28 @@
         <v>45</v>
       </c>
       <c r="B47" s="2">
-        <v>45358</v>
+        <v>45727</v>
       </c>
       <c r="C47">
         <v>46</v>
       </c>
-      <c r="D47" s="2">
-        <v>45358</v>
+      <c r="D47">
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1452</v>
+        <v>5</v>
       </c>
       <c r="G47">
-        <v>1752</v>
+        <v>1413</v>
       </c>
       <c r="H47">
-        <v>1452</v>
+        <v>102</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1770,28 +1770,28 @@
         <v>46</v>
       </c>
       <c r="B48" s="2">
-        <v>45359</v>
+        <v>45728</v>
       </c>
       <c r="C48">
         <v>47</v>
       </c>
-      <c r="D48" s="2">
-        <v>45359</v>
+      <c r="D48">
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1478</v>
+        <v>5</v>
       </c>
       <c r="G48">
-        <v>1790</v>
+        <v>1444</v>
       </c>
       <c r="H48">
-        <v>1478</v>
+        <v>104</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1799,28 +1799,28 @@
         <v>47</v>
       </c>
       <c r="B49" s="2">
-        <v>45362</v>
+        <v>45729</v>
       </c>
       <c r="C49">
         <v>48</v>
       </c>
-      <c r="D49" s="2">
-        <v>45362</v>
+      <c r="D49">
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1498</v>
+        <v>5</v>
       </c>
       <c r="G49">
-        <v>1829</v>
+        <v>1475</v>
       </c>
       <c r="H49">
-        <v>1498</v>
+        <v>106</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1828,28 +1828,28 @@
         <v>48</v>
       </c>
       <c r="B50" s="2">
-        <v>45363</v>
+        <v>45730</v>
       </c>
       <c r="C50">
         <v>49</v>
       </c>
-      <c r="D50" s="2">
-        <v>45363</v>
+      <c r="D50">
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1525</v>
+        <v>5</v>
       </c>
       <c r="G50">
-        <v>1867</v>
+        <v>1505</v>
       </c>
       <c r="H50">
-        <v>1525</v>
+        <v>108</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1857,10 +1857,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="2">
-        <v>45364</v>
+        <v>45733</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1869,16 +1869,16 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1525</v>
+        <v>5</v>
       </c>
       <c r="G51">
-        <v>1905</v>
+        <v>1505</v>
       </c>
       <c r="H51">
-        <v>1525</v>
+        <v>108</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1886,10 +1886,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="2">
-        <v>45365</v>
+        <v>45734</v>
       </c>
       <c r="C52">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1525</v>
+        <v>5</v>
       </c>
       <c r="G52">
-        <v>1943</v>
+        <v>1505</v>
       </c>
       <c r="H52">
-        <v>1525</v>
+        <v>108</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1915,10 +1915,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="2">
-        <v>45366</v>
+        <v>45735</v>
       </c>
       <c r="C53">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1927,16 +1927,16 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1525</v>
+        <v>5</v>
       </c>
       <c r="G53">
-        <v>1981</v>
+        <v>1505</v>
       </c>
       <c r="H53">
-        <v>1525</v>
+        <v>108</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1944,10 +1944,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="2">
-        <v>45369</v>
+        <v>45736</v>
       </c>
       <c r="C54">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1956,16 +1956,16 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1525</v>
+        <v>5</v>
       </c>
       <c r="G54">
-        <v>2019</v>
+        <v>1505</v>
       </c>
       <c r="H54">
-        <v>1525</v>
+        <v>108</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -1973,10 +1973,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="2">
-        <v>45370</v>
+        <v>45737</v>
       </c>
       <c r="C55">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1985,16 +1985,16 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1525</v>
+        <v>5</v>
       </c>
       <c r="G55">
-        <v>2057</v>
+        <v>1505</v>
       </c>
       <c r="H55">
-        <v>1525</v>
+        <v>108</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2002,28 +2002,28 @@
         <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>45371</v>
+        <v>45740</v>
       </c>
       <c r="C56">
         <v>55</v>
       </c>
-      <c r="D56" s="2">
-        <v>45371</v>
+      <c r="D56">
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1707</v>
+        <v>5</v>
       </c>
       <c r="G56">
-        <v>2095</v>
+        <v>1690</v>
       </c>
       <c r="H56">
-        <v>1707</v>
+        <v>123</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2031,28 +2031,28 @@
         <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>45372</v>
+        <v>45741</v>
       </c>
       <c r="C57">
         <v>56</v>
       </c>
-      <c r="D57" s="2">
-        <v>45372</v>
+      <c r="D57">
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>1725</v>
+        <v>5</v>
       </c>
       <c r="G57">
-        <v>2133</v>
+        <v>1720</v>
       </c>
       <c r="H57">
-        <v>1725</v>
+        <v>126</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2060,28 +2060,28 @@
         <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>45373</v>
+        <v>45742</v>
       </c>
       <c r="C58">
         <v>57</v>
       </c>
-      <c r="D58" s="2">
-        <v>45373</v>
+      <c r="D58">
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>1773</v>
+        <v>5</v>
       </c>
       <c r="G58">
-        <v>2171</v>
+        <v>1751</v>
       </c>
       <c r="H58">
-        <v>1773</v>
+        <v>128</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2089,7 +2089,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>45376</v>
+        <v>45743</v>
       </c>
       <c r="C59">
         <v>58</v>
@@ -2101,16 +2101,16 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1773</v>
+        <v>5</v>
       </c>
       <c r="G59">
-        <v>2210</v>
+        <v>1782</v>
       </c>
       <c r="H59">
-        <v>1773</v>
+        <v>130</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2118,7 +2118,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>45377</v>
+        <v>45744</v>
       </c>
       <c r="C60">
         <v>59</v>
@@ -2130,16 +2130,16 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1773</v>
+        <v>5</v>
       </c>
       <c r="G60">
-        <v>2248</v>
+        <v>1812</v>
       </c>
       <c r="H60">
-        <v>1773</v>
+        <v>132</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2147,7 +2147,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>45378</v>
+        <v>45747</v>
       </c>
       <c r="C61">
         <v>60</v>
@@ -2159,16 +2159,16 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1773</v>
+        <v>5</v>
       </c>
       <c r="G61">
-        <v>2286</v>
+        <v>1843</v>
       </c>
       <c r="H61">
-        <v>1773</v>
+        <v>134</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2176,28 +2176,28 @@
         <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="C62">
         <v>61</v>
       </c>
-      <c r="D62" s="2">
-        <v>45383</v>
+      <c r="D62">
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1884</v>
+        <v>5</v>
       </c>
       <c r="G62">
-        <v>2324</v>
+        <v>1874</v>
       </c>
       <c r="H62">
-        <v>1884</v>
+        <v>136</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2205,28 +2205,28 @@
         <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>45384</v>
+        <v>45749</v>
       </c>
       <c r="C63">
         <v>62</v>
       </c>
-      <c r="D63" s="2">
-        <v>45384</v>
+      <c r="D63">
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1930</v>
+        <v>5</v>
       </c>
       <c r="G63">
-        <v>2362</v>
+        <v>1905</v>
       </c>
       <c r="H63">
-        <v>1930</v>
+        <v>138</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2234,28 +2234,28 @@
         <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>45385</v>
+        <v>45750</v>
       </c>
       <c r="C64">
         <v>63</v>
       </c>
-      <c r="D64" s="2">
-        <v>45385</v>
+      <c r="D64">
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1960</v>
+        <v>5</v>
       </c>
       <c r="G64">
-        <v>2400</v>
+        <v>1935</v>
       </c>
       <c r="H64">
-        <v>1960</v>
+        <v>140</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2263,28 +2263,28 @@
         <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>45386</v>
+        <v>45751</v>
       </c>
       <c r="C65">
         <v>64</v>
       </c>
-      <c r="D65" s="2">
-        <v>45386</v>
+      <c r="D65">
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>2005</v>
+        <v>5</v>
       </c>
       <c r="G65">
-        <v>2438</v>
+        <v>1966</v>
       </c>
       <c r="H65">
-        <v>2005</v>
+        <v>142</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2292,28 +2292,28 @@
         <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>45387</v>
+        <v>45754</v>
       </c>
       <c r="C66">
         <v>65</v>
       </c>
-      <c r="D66" s="2">
-        <v>45387</v>
+      <c r="D66">
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>2051</v>
+        <v>5</v>
       </c>
       <c r="G66">
-        <v>2476</v>
+        <v>1997</v>
       </c>
       <c r="H66">
-        <v>2051</v>
+        <v>144</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2321,28 +2321,28 @@
         <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>45390</v>
+        <v>45755</v>
       </c>
       <c r="C67">
         <v>66</v>
       </c>
-      <c r="D67" s="2">
-        <v>45390</v>
+      <c r="D67">
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>2071</v>
+        <v>5</v>
       </c>
       <c r="G67">
-        <v>2514</v>
+        <v>2028</v>
       </c>
       <c r="H67">
-        <v>2071</v>
+        <v>146</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2350,28 +2350,28 @@
         <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>45391</v>
+        <v>45756</v>
       </c>
       <c r="C68">
         <v>67</v>
       </c>
-      <c r="D68" s="2">
-        <v>45391</v>
+      <c r="D68">
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>2109</v>
+        <v>5</v>
       </c>
       <c r="G68">
-        <v>2552</v>
+        <v>2058</v>
       </c>
       <c r="H68">
-        <v>2109</v>
+        <v>148</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2379,28 +2379,28 @@
         <v>67</v>
       </c>
       <c r="B69" s="2">
-        <v>45392</v>
+        <v>45757</v>
       </c>
       <c r="C69">
         <v>68</v>
       </c>
-      <c r="D69" s="2">
-        <v>45392</v>
+      <c r="D69">
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>2176</v>
+        <v>5</v>
       </c>
       <c r="G69">
-        <v>2590</v>
+        <v>2089</v>
       </c>
       <c r="H69">
-        <v>2176</v>
+        <v>150</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2408,10 +2408,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>45393</v>
+        <v>45758</v>
       </c>
       <c r="C70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2420,16 +2420,16 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>2176</v>
+        <v>5</v>
       </c>
       <c r="G70">
-        <v>2629</v>
+        <v>2089</v>
       </c>
       <c r="H70">
-        <v>2176</v>
+        <v>150</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2437,10 +2437,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>45394</v>
+        <v>45761</v>
       </c>
       <c r="C71">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2449,16 +2449,16 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>2176</v>
+        <v>5</v>
       </c>
       <c r="G71">
-        <v>2667</v>
+        <v>2089</v>
       </c>
       <c r="H71">
-        <v>2176</v>
+        <v>150</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2466,10 +2466,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>45397</v>
+        <v>45762</v>
       </c>
       <c r="C72">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>2176</v>
+        <v>5</v>
       </c>
       <c r="G72">
-        <v>2705</v>
+        <v>2089</v>
       </c>
       <c r="H72">
-        <v>2176</v>
+        <v>150</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2495,10 +2495,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>45398</v>
+        <v>45763</v>
       </c>
       <c r="C73">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2507,16 +2507,16 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>2176</v>
+        <v>5</v>
       </c>
       <c r="G73">
-        <v>2743</v>
+        <v>2089</v>
       </c>
       <c r="H73">
-        <v>2176</v>
+        <v>150</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2524,10 +2524,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>45399</v>
+        <v>45768</v>
       </c>
       <c r="C74">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2536,16 +2536,16 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>2176</v>
+        <v>5</v>
       </c>
       <c r="G74">
-        <v>2781</v>
+        <v>2089</v>
       </c>
       <c r="H74">
-        <v>2176</v>
+        <v>150</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2553,28 +2553,28 @@
         <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>45400</v>
+        <v>45769</v>
       </c>
       <c r="C75">
-        <v>74</v>
-      </c>
-      <c r="D75" s="2">
-        <v>45400</v>
+        <v>68</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>2352</v>
+        <v>5</v>
       </c>
       <c r="G75">
-        <v>2819</v>
+        <v>2089</v>
       </c>
       <c r="H75">
-        <v>2352</v>
+        <v>150</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2582,28 +2582,28 @@
         <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>45401</v>
+        <v>45770</v>
       </c>
       <c r="C76">
-        <v>75</v>
-      </c>
-      <c r="D76" s="2">
-        <v>45401</v>
+        <v>68</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>2388</v>
+        <v>5</v>
       </c>
       <c r="G76">
-        <v>2857</v>
+        <v>2089</v>
       </c>
       <c r="H76">
-        <v>2388</v>
+        <v>150</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2611,28 +2611,28 @@
         <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>45405</v>
+        <v>45771</v>
       </c>
       <c r="C77">
-        <v>76</v>
-      </c>
-      <c r="D77" s="2">
-        <v>45405</v>
+        <v>68</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>2415</v>
+        <v>5</v>
       </c>
       <c r="G77">
-        <v>2895</v>
+        <v>2089</v>
       </c>
       <c r="H77">
-        <v>2415</v>
+        <v>150</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2640,28 +2640,28 @@
         <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>45406</v>
+        <v>45772</v>
       </c>
       <c r="C78">
-        <v>77</v>
-      </c>
-      <c r="D78" s="2">
-        <v>45406</v>
+        <v>74</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>2461</v>
+        <v>5</v>
       </c>
       <c r="G78">
-        <v>2933</v>
+        <v>2273</v>
       </c>
       <c r="H78">
-        <v>2461</v>
+        <v>165</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2669,28 +2669,28 @@
         <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>45407</v>
+        <v>45775</v>
       </c>
       <c r="C79">
-        <v>78</v>
-      </c>
-      <c r="D79" s="2">
-        <v>45407</v>
+        <v>75</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>2501</v>
+        <v>5</v>
       </c>
       <c r="G79">
-        <v>2971</v>
+        <v>2304</v>
       </c>
       <c r="H79">
-        <v>2501</v>
+        <v>168</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2698,28 +2698,28 @@
         <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>45408</v>
+        <v>45776</v>
       </c>
       <c r="C80">
-        <v>79</v>
-      </c>
-      <c r="D80" s="2">
-        <v>45408</v>
+        <v>76</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>2525</v>
+        <v>5</v>
       </c>
       <c r="G80">
-        <v>3010</v>
+        <v>2335</v>
       </c>
       <c r="H80">
-        <v>2525</v>
+        <v>170</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2727,28 +2727,28 @@
         <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>45411</v>
+        <v>45777</v>
       </c>
       <c r="C81">
-        <v>80</v>
-      </c>
-      <c r="D81" s="2">
-        <v>45411</v>
+        <v>77</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>2557</v>
+        <v>5</v>
       </c>
       <c r="G81">
-        <v>3048</v>
+        <v>2365</v>
       </c>
       <c r="H81">
-        <v>2557</v>
+        <v>172</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2756,28 +2756,28 @@
         <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>45412</v>
+        <v>45779</v>
       </c>
       <c r="C82">
-        <v>81</v>
-      </c>
-      <c r="D82" s="2">
-        <v>45412</v>
+        <v>78</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>2613</v>
+        <v>5</v>
       </c>
       <c r="G82">
-        <v>3086</v>
+        <v>2396</v>
       </c>
       <c r="H82">
-        <v>2613</v>
+        <v>174</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2785,28 +2785,28 @@
         <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>45414</v>
+        <v>45782</v>
       </c>
       <c r="C83">
-        <v>82</v>
-      </c>
-      <c r="D83" s="2">
-        <v>45414</v>
+        <v>79</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>2637</v>
+        <v>5</v>
       </c>
       <c r="G83">
-        <v>3124</v>
+        <v>2427</v>
       </c>
       <c r="H83">
-        <v>2637</v>
+        <v>176</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2814,28 +2814,28 @@
         <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>45415</v>
+        <v>45783</v>
       </c>
       <c r="C84">
-        <v>83</v>
-      </c>
-      <c r="D84" s="2">
-        <v>45415</v>
+        <v>80</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>2671</v>
+        <v>5</v>
       </c>
       <c r="G84">
-        <v>3162</v>
+        <v>2458</v>
       </c>
       <c r="H84">
-        <v>2671</v>
+        <v>178</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2843,28 +2843,28 @@
         <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>45418</v>
+        <v>45784</v>
       </c>
       <c r="C85">
-        <v>84</v>
-      </c>
-      <c r="D85" s="2">
-        <v>45418</v>
+        <v>81</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>2692</v>
+        <v>5</v>
       </c>
       <c r="G85">
-        <v>3200</v>
+        <v>2488</v>
       </c>
       <c r="H85">
-        <v>2692</v>
+        <v>180</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2872,28 +2872,28 @@
         <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>45419</v>
+        <v>45785</v>
       </c>
       <c r="C86">
-        <v>85</v>
-      </c>
-      <c r="D86" s="2">
-        <v>45419</v>
+        <v>82</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>2729</v>
+        <v>5</v>
       </c>
       <c r="G86">
-        <v>3238</v>
+        <v>2519</v>
       </c>
       <c r="H86">
-        <v>2729</v>
+        <v>182</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2901,28 +2901,28 @@
         <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>45420</v>
+        <v>45786</v>
       </c>
       <c r="C87">
-        <v>86</v>
-      </c>
-      <c r="D87" s="2">
-        <v>45420</v>
+        <v>83</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>2790</v>
+        <v>5</v>
       </c>
       <c r="G87">
-        <v>3276</v>
+        <v>2550</v>
       </c>
       <c r="H87">
-        <v>2790</v>
+        <v>184</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -2930,28 +2930,28 @@
         <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>45421</v>
+        <v>45789</v>
       </c>
       <c r="C88">
-        <v>87</v>
-      </c>
-      <c r="D88" s="2">
-        <v>45421</v>
+        <v>84</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>2856</v>
+        <v>5</v>
       </c>
       <c r="G88">
-        <v>3314</v>
+        <v>2580</v>
       </c>
       <c r="H88">
-        <v>2856</v>
+        <v>186</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -2959,28 +2959,28 @@
         <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>45422</v>
+        <v>45790</v>
       </c>
       <c r="C89">
-        <v>88</v>
-      </c>
-      <c r="D89" s="2">
-        <v>45422</v>
+        <v>85</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>2890</v>
+        <v>5</v>
       </c>
       <c r="G89">
-        <v>3352</v>
+        <v>2611</v>
       </c>
       <c r="H89">
-        <v>2890</v>
+        <v>188</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -2988,28 +2988,28 @@
         <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>45425</v>
+        <v>45791</v>
       </c>
       <c r="C90">
-        <v>89</v>
-      </c>
-      <c r="D90" s="2">
-        <v>45425</v>
+        <v>85</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>2921</v>
+        <v>5</v>
       </c>
       <c r="G90">
-        <v>3390</v>
+        <v>2611</v>
       </c>
       <c r="H90">
-        <v>2921</v>
+        <v>188</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3017,10 +3017,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>45426</v>
+        <v>45792</v>
       </c>
       <c r="C91">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -3029,16 +3029,16 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>2921</v>
+        <v>5</v>
       </c>
       <c r="G91">
-        <v>3429</v>
+        <v>2611</v>
       </c>
       <c r="H91">
-        <v>2921</v>
+        <v>188</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3046,10 +3046,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>45427</v>
+        <v>45793</v>
       </c>
       <c r="C92">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -3058,16 +3058,16 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>2921</v>
+        <v>5</v>
       </c>
       <c r="G92">
-        <v>3467</v>
+        <v>2611</v>
       </c>
       <c r="H92">
-        <v>2921</v>
+        <v>188</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3075,10 +3075,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>45428</v>
+        <v>45796</v>
       </c>
       <c r="C93">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -3087,16 +3087,16 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>2921</v>
+        <v>5</v>
       </c>
       <c r="G93">
-        <v>3505</v>
+        <v>2611</v>
       </c>
       <c r="H93">
-        <v>2921</v>
+        <v>188</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3104,10 +3104,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>45429</v>
+        <v>45797</v>
       </c>
       <c r="C94">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -3116,16 +3116,16 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>2921</v>
+        <v>5</v>
       </c>
       <c r="G94">
-        <v>3543</v>
+        <v>2611</v>
       </c>
       <c r="H94">
-        <v>2921</v>
+        <v>188</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3133,10 +3133,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>45432</v>
+        <v>45798</v>
       </c>
       <c r="C95">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3145,16 +3145,16 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>2921</v>
+        <v>5</v>
       </c>
       <c r="G95">
-        <v>3581</v>
+        <v>2949</v>
       </c>
       <c r="H95">
-        <v>2921</v>
+        <v>216</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3162,28 +3162,28 @@
         <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>45433</v>
+        <v>45799</v>
       </c>
       <c r="C96">
-        <v>95</v>
-      </c>
-      <c r="D96" s="2">
-        <v>45433</v>
+        <v>97</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>3102</v>
+        <v>5</v>
       </c>
       <c r="G96">
-        <v>3619</v>
+        <v>2980</v>
       </c>
       <c r="H96">
-        <v>3102</v>
+        <v>218</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3191,28 +3191,28 @@
         <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>45434</v>
+        <v>45800</v>
       </c>
       <c r="C97">
-        <v>96</v>
-      </c>
-      <c r="D97" s="2">
-        <v>45434</v>
+        <v>98</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>3141</v>
+        <v>5</v>
       </c>
       <c r="G97">
-        <v>3657</v>
+        <v>3011</v>
       </c>
       <c r="H97">
-        <v>3141</v>
+        <v>220</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3220,28 +3220,28 @@
         <v>96</v>
       </c>
       <c r="B98" s="2">
-        <v>45435</v>
+        <v>45803</v>
       </c>
       <c r="C98">
-        <v>97</v>
-      </c>
-      <c r="D98" s="2">
-        <v>45435</v>
+        <v>99</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>3163</v>
+        <v>5</v>
       </c>
       <c r="G98">
-        <v>3695</v>
+        <v>3041</v>
       </c>
       <c r="H98">
-        <v>3163</v>
+        <v>222</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3249,28 +3249,28 @@
         <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>45436</v>
+        <v>45804</v>
       </c>
       <c r="C99">
-        <v>98</v>
-      </c>
-      <c r="D99" s="2">
-        <v>45436</v>
+        <v>100</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>3188</v>
+        <v>5</v>
       </c>
       <c r="G99">
-        <v>3733</v>
+        <v>3072</v>
       </c>
       <c r="H99">
-        <v>3188</v>
+        <v>224</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3278,28 +3278,28 @@
         <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>45439</v>
+        <v>45805</v>
       </c>
       <c r="C100">
-        <v>99</v>
-      </c>
-      <c r="D100" s="2">
-        <v>45439</v>
+        <v>101</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>3207</v>
+        <v>5</v>
       </c>
       <c r="G100">
-        <v>3771</v>
+        <v>3103</v>
       </c>
       <c r="H100">
-        <v>3207</v>
+        <v>226</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3307,28 +3307,28 @@
         <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>45440</v>
+        <v>45806</v>
       </c>
       <c r="C101">
-        <v>100</v>
-      </c>
-      <c r="D101" s="2">
-        <v>45440</v>
+        <v>102</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>3232</v>
+        <v>5</v>
       </c>
       <c r="G101">
-        <v>3810</v>
+        <v>3133</v>
       </c>
       <c r="H101">
-        <v>3232</v>
+        <v>228</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3336,28 +3336,28 @@
         <v>100</v>
       </c>
       <c r="B102" s="2">
-        <v>45441</v>
+        <v>45807</v>
       </c>
       <c r="C102">
-        <v>101</v>
-      </c>
-      <c r="D102" s="2">
-        <v>45441</v>
+        <v>103</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>3287</v>
+        <v>5</v>
       </c>
       <c r="G102">
-        <v>3848</v>
+        <v>3164</v>
       </c>
       <c r="H102">
-        <v>3287</v>
+        <v>230</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -3365,28 +3365,28 @@
         <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>45442</v>
+        <v>45810</v>
       </c>
       <c r="C103">
-        <v>102</v>
-      </c>
-      <c r="D103" s="2">
-        <v>45442</v>
+        <v>104</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>3326</v>
+        <v>5</v>
       </c>
       <c r="G103">
-        <v>3886</v>
+        <v>3195</v>
       </c>
       <c r="H103">
-        <v>3326</v>
+        <v>232</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -3394,28 +3394,28 @@
         <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>45443</v>
+        <v>45811</v>
       </c>
       <c r="C104">
-        <v>103</v>
-      </c>
-      <c r="D104" s="2">
-        <v>45443</v>
+        <v>105</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>3362</v>
+        <v>5</v>
       </c>
       <c r="G104">
-        <v>3924</v>
+        <v>3226</v>
       </c>
       <c r="H104">
-        <v>3362</v>
+        <v>234</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3423,28 +3423,28 @@
         <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>45446</v>
+        <v>45812</v>
       </c>
       <c r="C105">
-        <v>104</v>
-      </c>
-      <c r="D105" s="2">
-        <v>45446</v>
+        <v>106</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>3373</v>
+        <v>5</v>
       </c>
       <c r="G105">
-        <v>3962</v>
+        <v>3256</v>
       </c>
       <c r="H105">
-        <v>3373</v>
+        <v>236</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3452,28 +3452,28 @@
         <v>104</v>
       </c>
       <c r="B106" s="2">
-        <v>45447</v>
+        <v>45813</v>
       </c>
       <c r="C106">
-        <v>105</v>
-      </c>
-      <c r="D106" s="2">
-        <v>45447</v>
+        <v>107</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>3403</v>
+        <v>5</v>
       </c>
       <c r="G106">
-        <v>4000</v>
+        <v>3287</v>
       </c>
       <c r="H106">
-        <v>3403</v>
+        <v>238</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3481,28 +3481,28 @@
         <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>45448</v>
+        <v>45814</v>
       </c>
       <c r="C107">
-        <v>106</v>
-      </c>
-      <c r="D107" s="2">
-        <v>45448</v>
+        <v>108</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>3453</v>
+        <v>5</v>
       </c>
       <c r="G107">
-        <v>4038</v>
+        <v>3318</v>
       </c>
       <c r="H107">
-        <v>3453</v>
+        <v>240</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -3510,28 +3510,28 @@
         <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>45449</v>
+        <v>45817</v>
       </c>
       <c r="C108">
-        <v>107</v>
-      </c>
-      <c r="D108" s="2">
-        <v>45449</v>
+        <v>109</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>3484</v>
+        <v>5</v>
       </c>
       <c r="G108">
-        <v>4076</v>
+        <v>3348</v>
       </c>
       <c r="H108">
-        <v>3484</v>
+        <v>242</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -3539,28 +3539,28 @@
         <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>45450</v>
+        <v>45818</v>
       </c>
       <c r="C109">
-        <v>108</v>
-      </c>
-      <c r="D109" s="2">
-        <v>45450</v>
+        <v>110</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>3502</v>
+        <v>5</v>
       </c>
       <c r="G109">
-        <v>4114</v>
+        <v>3379</v>
       </c>
       <c r="H109">
-        <v>3502</v>
+        <v>244</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -3568,28 +3568,28 @@
         <v>108</v>
       </c>
       <c r="B110" s="2">
-        <v>45453</v>
+        <v>45819</v>
       </c>
       <c r="C110">
-        <v>109</v>
-      </c>
-      <c r="D110" s="2">
-        <v>45453</v>
+        <v>111</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>3532</v>
+        <v>5</v>
       </c>
       <c r="G110">
-        <v>4152</v>
+        <v>3410</v>
       </c>
       <c r="H110">
-        <v>3532</v>
+        <v>246</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3597,28 +3597,28 @@
         <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>45454</v>
+        <v>45820</v>
       </c>
       <c r="C111">
-        <v>110</v>
-      </c>
-      <c r="D111" s="2">
-        <v>45454</v>
+        <v>111</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>3573</v>
+        <v>5</v>
       </c>
       <c r="G111">
-        <v>4190</v>
+        <v>3410</v>
       </c>
       <c r="H111">
-        <v>3573</v>
+        <v>246</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3626,28 +3626,28 @@
         <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>45455</v>
+        <v>45821</v>
       </c>
       <c r="C112">
         <v>111</v>
       </c>
-      <c r="D112" s="2">
-        <v>45455</v>
+      <c r="D112">
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>3651</v>
+        <v>5</v>
       </c>
       <c r="G112">
-        <v>4229</v>
+        <v>3410</v>
       </c>
       <c r="H112">
-        <v>3651</v>
+        <v>246</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3655,10 +3655,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>45456</v>
+        <v>45824</v>
       </c>
       <c r="C113">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>3651</v>
+        <v>5</v>
       </c>
       <c r="G113">
-        <v>4267</v>
+        <v>3410</v>
       </c>
       <c r="H113">
-        <v>3651</v>
+        <v>246</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -3684,10 +3684,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>45457</v>
+        <v>45825</v>
       </c>
       <c r="C114">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -3696,16 +3696,16 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>3651</v>
+        <v>5</v>
       </c>
       <c r="G114">
-        <v>4305</v>
+        <v>3410</v>
       </c>
       <c r="H114">
-        <v>3651</v>
+        <v>246</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -3713,10 +3713,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>45460</v>
+        <v>45826</v>
       </c>
       <c r="C115">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -3725,16 +3725,16 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>3651</v>
+        <v>5</v>
       </c>
       <c r="G115">
-        <v>4343</v>
+        <v>3410</v>
       </c>
       <c r="H115">
-        <v>3651</v>
+        <v>246</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -3742,10 +3742,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>45461</v>
+        <v>45828</v>
       </c>
       <c r="C116">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -3754,16 +3754,16 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>3651</v>
+        <v>5</v>
       </c>
       <c r="G116">
-        <v>4381</v>
+        <v>3594</v>
       </c>
       <c r="H116">
-        <v>3651</v>
+        <v>261</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -3771,10 +3771,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>45463</v>
+        <v>45831</v>
       </c>
       <c r="C117">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -3783,16 +3783,16 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>3651</v>
+        <v>5</v>
       </c>
       <c r="G117">
-        <v>4419</v>
+        <v>3625</v>
       </c>
       <c r="H117">
-        <v>3651</v>
+        <v>264</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -3800,28 +3800,28 @@
         <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>45464</v>
+        <v>45832</v>
       </c>
       <c r="C118">
-        <v>117</v>
-      </c>
-      <c r="D118" s="2">
-        <v>45464</v>
+        <v>119</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>3793</v>
+        <v>5</v>
       </c>
       <c r="G118">
-        <v>4457</v>
+        <v>3656</v>
       </c>
       <c r="H118">
-        <v>3793</v>
+        <v>266</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -3829,28 +3829,28 @@
         <v>117</v>
       </c>
       <c r="B119" s="2">
-        <v>45467</v>
+        <v>45833</v>
       </c>
       <c r="C119">
-        <v>118</v>
-      </c>
-      <c r="D119" s="2">
-        <v>45467</v>
+        <v>120</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>3809</v>
+        <v>5</v>
       </c>
       <c r="G119">
-        <v>4495</v>
+        <v>3686</v>
       </c>
       <c r="H119">
-        <v>3809</v>
+        <v>268</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -3858,28 +3858,28 @@
         <v>118</v>
       </c>
       <c r="B120" s="2">
-        <v>45468</v>
+        <v>45834</v>
       </c>
       <c r="C120">
-        <v>119</v>
-      </c>
-      <c r="D120" s="2">
-        <v>45468</v>
+        <v>121</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>3850</v>
+        <v>5</v>
       </c>
       <c r="G120">
-        <v>4533</v>
+        <v>3717</v>
       </c>
       <c r="H120">
-        <v>3850</v>
+        <v>270</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -3887,28 +3887,28 @@
         <v>119</v>
       </c>
       <c r="B121" s="2">
-        <v>45469</v>
+        <v>45835</v>
       </c>
       <c r="C121">
-        <v>120</v>
-      </c>
-      <c r="D121" s="2">
-        <v>45469</v>
+        <v>122</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>3910</v>
+        <v>5</v>
       </c>
       <c r="G121">
-        <v>4571</v>
+        <v>3748</v>
       </c>
       <c r="H121">
-        <v>3910</v>
+        <v>272</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3916,28 +3916,28 @@
         <v>120</v>
       </c>
       <c r="B122" s="2">
-        <v>45470</v>
+        <v>45838</v>
       </c>
       <c r="C122">
-        <v>121</v>
-      </c>
-      <c r="D122" s="2">
-        <v>45470</v>
+        <v>123</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>3953</v>
+        <v>5</v>
       </c>
       <c r="G122">
-        <v>4610</v>
+        <v>3779</v>
       </c>
       <c r="H122">
-        <v>3953</v>
+        <v>274</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -3945,28 +3945,28 @@
         <v>121</v>
       </c>
       <c r="B123" s="2">
-        <v>45471</v>
+        <v>45839</v>
       </c>
       <c r="C123">
-        <v>122</v>
-      </c>
-      <c r="D123" s="2">
-        <v>45471</v>
+        <v>124</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>3968</v>
+        <v>5</v>
       </c>
       <c r="G123">
-        <v>4648</v>
+        <v>3809</v>
       </c>
       <c r="H123">
-        <v>3968</v>
+        <v>276</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -3974,28 +3974,28 @@
         <v>122</v>
       </c>
       <c r="B124" s="2">
-        <v>45474</v>
+        <v>45840</v>
       </c>
       <c r="C124">
-        <v>123</v>
-      </c>
-      <c r="D124" s="2">
-        <v>45474</v>
+        <v>125</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>3978</v>
+        <v>5</v>
       </c>
       <c r="G124">
-        <v>4686</v>
+        <v>3840</v>
       </c>
       <c r="H124">
-        <v>3978</v>
+        <v>278</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4003,28 +4003,28 @@
         <v>123</v>
       </c>
       <c r="B125" s="2">
-        <v>45475</v>
+        <v>45841</v>
       </c>
       <c r="C125">
-        <v>124</v>
-      </c>
-      <c r="D125" s="2">
-        <v>45475</v>
+        <v>126</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>3994</v>
+        <v>5</v>
       </c>
       <c r="G125">
-        <v>4724</v>
+        <v>3871</v>
       </c>
       <c r="H125">
-        <v>3994</v>
+        <v>280</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4032,28 +4032,28 @@
         <v>124</v>
       </c>
       <c r="B126" s="2">
-        <v>45476</v>
+        <v>45842</v>
       </c>
       <c r="C126">
-        <v>125</v>
-      </c>
-      <c r="D126" s="2">
-        <v>45476</v>
+        <v>127</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>4025</v>
+        <v>5</v>
       </c>
       <c r="G126">
-        <v>4762</v>
+        <v>3901</v>
       </c>
       <c r="H126">
-        <v>4025</v>
+        <v>282</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4061,28 +4061,28 @@
         <v>125</v>
       </c>
       <c r="B127" s="2">
-        <v>45477</v>
+        <v>45845</v>
       </c>
       <c r="C127">
-        <v>126</v>
-      </c>
-      <c r="D127" s="2">
-        <v>45477</v>
+        <v>128</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>4039</v>
+        <v>5</v>
       </c>
       <c r="G127">
-        <v>4800</v>
+        <v>3932</v>
       </c>
       <c r="H127">
-        <v>4039</v>
+        <v>284</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4090,28 +4090,28 @@
         <v>126</v>
       </c>
       <c r="B128" s="2">
-        <v>45478</v>
+        <v>45846</v>
       </c>
       <c r="C128">
-        <v>127</v>
-      </c>
-      <c r="D128" s="2">
-        <v>45478</v>
+        <v>129</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>4074</v>
+        <v>5</v>
       </c>
       <c r="G128">
-        <v>4838</v>
+        <v>3963</v>
       </c>
       <c r="H128">
-        <v>4074</v>
+        <v>286</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4119,28 +4119,28 @@
         <v>127</v>
       </c>
       <c r="B129" s="2">
-        <v>45481</v>
+        <v>45847</v>
       </c>
       <c r="C129">
-        <v>128</v>
-      </c>
-      <c r="D129" s="2">
-        <v>45481</v>
+        <v>130</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>4077</v>
+        <v>5</v>
       </c>
       <c r="G129">
-        <v>4876</v>
+        <v>3994</v>
       </c>
       <c r="H129">
-        <v>4077</v>
+        <v>288</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4148,28 +4148,28 @@
         <v>128</v>
       </c>
       <c r="B130" s="2">
-        <v>45482</v>
+        <v>45848</v>
       </c>
       <c r="C130">
-        <v>129</v>
-      </c>
-      <c r="D130" s="2">
-        <v>45482</v>
+        <v>131</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>4096</v>
+        <v>5</v>
       </c>
       <c r="G130">
-        <v>4914</v>
+        <v>4024</v>
       </c>
       <c r="H130">
-        <v>4096</v>
+        <v>290</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4177,28 +4177,28 @@
         <v>129</v>
       </c>
       <c r="B131" s="2">
-        <v>45483</v>
+        <v>45849</v>
       </c>
       <c r="C131">
-        <v>130</v>
-      </c>
-      <c r="D131" s="2">
-        <v>45483</v>
+        <v>131</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>4116</v>
+        <v>5</v>
       </c>
       <c r="G131">
-        <v>4952</v>
+        <v>4024</v>
       </c>
       <c r="H131">
-        <v>4116</v>
+        <v>290</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4206,7 +4206,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="2">
-        <v>45484</v>
+        <v>45852</v>
       </c>
       <c r="C132">
         <v>131</v>
@@ -4218,16 +4218,16 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>4116</v>
+        <v>5</v>
       </c>
       <c r="G132">
-        <v>4990</v>
+        <v>4024</v>
       </c>
       <c r="H132">
-        <v>4116</v>
+        <v>290</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4235,10 +4235,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="2">
-        <v>45485</v>
+        <v>45853</v>
       </c>
       <c r="C133">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -4247,16 +4247,16 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>4116</v>
+        <v>5</v>
       </c>
       <c r="G133">
-        <v>5029</v>
+        <v>4024</v>
       </c>
       <c r="H133">
-        <v>4116</v>
+        <v>290</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4264,10 +4264,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="2">
-        <v>45488</v>
+        <v>45854</v>
       </c>
       <c r="C134">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -4276,16 +4276,16 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>4116</v>
+        <v>5</v>
       </c>
       <c r="G134">
-        <v>5067</v>
+        <v>4024</v>
       </c>
       <c r="H134">
-        <v>4116</v>
+        <v>290</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4293,10 +4293,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="2">
-        <v>45489</v>
+        <v>45855</v>
       </c>
       <c r="C135">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -4305,16 +4305,16 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>4116</v>
+        <v>5</v>
       </c>
       <c r="G135">
-        <v>5105</v>
+        <v>4024</v>
       </c>
       <c r="H135">
-        <v>4116</v>
+        <v>290</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4322,10 +4322,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="2">
-        <v>45490</v>
+        <v>45859</v>
       </c>
       <c r="C136">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -4334,16 +4334,16 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>4116</v>
+        <v>5</v>
       </c>
       <c r="G136">
-        <v>5143</v>
+        <v>4209</v>
       </c>
       <c r="H136">
-        <v>4116</v>
+        <v>305</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -4351,28 +4351,28 @@
         <v>135</v>
       </c>
       <c r="B137" s="2">
-        <v>45492</v>
+        <v>45860</v>
       </c>
       <c r="C137">
-        <v>136</v>
-      </c>
-      <c r="D137" s="2">
-        <v>45492</v>
+        <v>138</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>4218</v>
+        <v>5</v>
       </c>
       <c r="G137">
-        <v>5181</v>
+        <v>4239</v>
       </c>
       <c r="H137">
-        <v>4218</v>
+        <v>308</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -4380,28 +4380,28 @@
         <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>45495</v>
+        <v>45861</v>
       </c>
       <c r="C138">
-        <v>137</v>
-      </c>
-      <c r="D138" s="2">
-        <v>45495</v>
+        <v>139</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>4237</v>
+        <v>5</v>
       </c>
       <c r="G138">
-        <v>5219</v>
+        <v>4270</v>
       </c>
       <c r="H138">
-        <v>4237</v>
+        <v>310</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -4409,28 +4409,28 @@
         <v>137</v>
       </c>
       <c r="B139" s="2">
-        <v>45496</v>
+        <v>45862</v>
       </c>
       <c r="C139">
-        <v>138</v>
-      </c>
-      <c r="D139" s="2">
-        <v>45496</v>
+        <v>140</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>4268</v>
+        <v>5</v>
       </c>
       <c r="G139">
-        <v>5257</v>
+        <v>4301</v>
       </c>
       <c r="H139">
-        <v>4268</v>
+        <v>312</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -4438,28 +4438,28 @@
         <v>138</v>
       </c>
       <c r="B140" s="2">
-        <v>45497</v>
+        <v>45863</v>
       </c>
       <c r="C140">
-        <v>139</v>
-      </c>
-      <c r="D140" s="2">
-        <v>45497</v>
+        <v>141</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>4329</v>
+        <v>5</v>
       </c>
       <c r="G140">
-        <v>5295</v>
+        <v>4332</v>
       </c>
       <c r="H140">
-        <v>4329</v>
+        <v>314</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -4467,28 +4467,28 @@
         <v>139</v>
       </c>
       <c r="B141" s="2">
-        <v>45498</v>
+        <v>45866</v>
       </c>
       <c r="C141">
-        <v>140</v>
-      </c>
-      <c r="D141" s="2">
-        <v>45498</v>
+        <v>142</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>4361</v>
+        <v>5</v>
       </c>
       <c r="G141">
-        <v>5333</v>
+        <v>4362</v>
       </c>
       <c r="H141">
-        <v>4361</v>
+        <v>316</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -4496,28 +4496,28 @@
         <v>140</v>
       </c>
       <c r="B142" s="2">
-        <v>45499</v>
+        <v>45867</v>
       </c>
       <c r="C142">
-        <v>141</v>
-      </c>
-      <c r="D142" s="2">
-        <v>45499</v>
+        <v>143</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>4396</v>
+        <v>5</v>
       </c>
       <c r="G142">
-        <v>5371</v>
+        <v>4393</v>
       </c>
       <c r="H142">
-        <v>4396</v>
+        <v>318</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -4525,28 +4525,28 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>45502</v>
+        <v>45868</v>
       </c>
       <c r="C143">
-        <v>142</v>
-      </c>
-      <c r="D143" s="2">
-        <v>45502</v>
+        <v>144</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>4422</v>
+        <v>5</v>
       </c>
       <c r="G143">
-        <v>5410</v>
+        <v>4424</v>
       </c>
       <c r="H143">
-        <v>4422</v>
+        <v>320</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -4554,28 +4554,28 @@
         <v>142</v>
       </c>
       <c r="B144" s="2">
-        <v>45503</v>
+        <v>45869</v>
       </c>
       <c r="C144">
-        <v>143</v>
-      </c>
-      <c r="D144" s="2">
-        <v>45503</v>
+        <v>145</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>4438</v>
+        <v>5</v>
       </c>
       <c r="G144">
-        <v>5448</v>
+        <v>4454</v>
       </c>
       <c r="H144">
-        <v>4438</v>
+        <v>322</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -4583,28 +4583,28 @@
         <v>143</v>
       </c>
       <c r="B145" s="2">
-        <v>45504</v>
+        <v>45870</v>
       </c>
       <c r="C145">
-        <v>144</v>
-      </c>
-      <c r="D145" s="2">
-        <v>45504</v>
+        <v>146</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>4469</v>
+        <v>5</v>
       </c>
       <c r="G145">
-        <v>5486</v>
+        <v>4485</v>
       </c>
       <c r="H145">
-        <v>4469</v>
+        <v>324</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -4612,28 +4612,28 @@
         <v>144</v>
       </c>
       <c r="B146" s="2">
-        <v>45505</v>
+        <v>45873</v>
       </c>
       <c r="C146">
-        <v>145</v>
-      </c>
-      <c r="D146" s="2">
-        <v>45505</v>
+        <v>147</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>4484</v>
+        <v>5</v>
       </c>
       <c r="G146">
-        <v>5524</v>
+        <v>4516</v>
       </c>
       <c r="H146">
-        <v>4484</v>
+        <v>326</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -4641,28 +4641,28 @@
         <v>145</v>
       </c>
       <c r="B147" s="2">
-        <v>45506</v>
+        <v>45874</v>
       </c>
       <c r="C147">
-        <v>146</v>
-      </c>
-      <c r="D147" s="2">
-        <v>45506</v>
+        <v>148</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>4502</v>
+        <v>5</v>
       </c>
       <c r="G147">
-        <v>5562</v>
+        <v>4547</v>
       </c>
       <c r="H147">
-        <v>4502</v>
+        <v>328</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -4670,28 +4670,28 @@
         <v>146</v>
       </c>
       <c r="B148" s="2">
-        <v>45509</v>
+        <v>45875</v>
       </c>
       <c r="C148">
-        <v>147</v>
-      </c>
-      <c r="D148" s="2">
-        <v>45509</v>
+        <v>149</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>4512</v>
+        <v>5</v>
       </c>
       <c r="G148">
-        <v>5600</v>
+        <v>4577</v>
       </c>
       <c r="H148">
-        <v>4512</v>
+        <v>330</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -4699,28 +4699,28 @@
         <v>147</v>
       </c>
       <c r="B149" s="2">
-        <v>45510</v>
+        <v>45876</v>
       </c>
       <c r="C149">
-        <v>148</v>
-      </c>
-      <c r="D149" s="2">
-        <v>45510</v>
+        <v>150</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
       </c>
       <c r="E149">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>4525</v>
+        <v>5</v>
       </c>
       <c r="G149">
-        <v>5638</v>
+        <v>4608</v>
       </c>
       <c r="H149">
-        <v>4525</v>
+        <v>332</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -4728,28 +4728,28 @@
         <v>148</v>
       </c>
       <c r="B150" s="2">
-        <v>45511</v>
+        <v>45877</v>
       </c>
       <c r="C150">
-        <v>149</v>
-      </c>
-      <c r="D150" s="2">
-        <v>45511</v>
+        <v>151</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
       </c>
       <c r="E150">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G150">
-        <v>5676</v>
+        <v>4639</v>
       </c>
       <c r="H150">
-        <v>4539</v>
+        <v>334</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -4757,10 +4757,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="2">
-        <v>45512</v>
+        <v>45880</v>
       </c>
       <c r="C151">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -4769,16 +4769,16 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G151">
-        <v>5714</v>
+        <v>4669</v>
       </c>
       <c r="H151">
-        <v>4539</v>
+        <v>336</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -4786,10 +4786,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="2">
-        <v>45513</v>
+        <v>45881</v>
       </c>
       <c r="C152">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -4798,13 +4798,13 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G152">
-        <v>5752</v>
+        <v>4700</v>
       </c>
       <c r="H152">
-        <v>4569</v>
+        <v>338</v>
       </c>
       <c r="I152">
         <v>1</v>
@@ -4815,10 +4815,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="2">
-        <v>45516</v>
+        <v>45882</v>
       </c>
       <c r="C153">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -4827,13 +4827,13 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G153">
-        <v>5790</v>
+        <v>4700</v>
       </c>
       <c r="H153">
-        <v>4599</v>
+        <v>338</v>
       </c>
       <c r="I153">
         <v>1</v>
@@ -4844,7 +4844,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="2">
-        <v>45517</v>
+        <v>45883</v>
       </c>
       <c r="C154">
         <v>153</v>
@@ -4856,13 +4856,13 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G154">
-        <v>5829</v>
+        <v>4700</v>
       </c>
       <c r="H154">
-        <v>4629</v>
+        <v>338</v>
       </c>
       <c r="I154">
         <v>1</v>
@@ -4873,10 +4873,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="2">
-        <v>45518</v>
+        <v>45884</v>
       </c>
       <c r="C155">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -4885,13 +4885,13 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G155">
-        <v>5867</v>
+        <v>4700</v>
       </c>
       <c r="H155">
-        <v>4659</v>
+        <v>338</v>
       </c>
       <c r="I155">
         <v>1</v>
@@ -4902,10 +4902,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="2">
-        <v>45519</v>
+        <v>45887</v>
       </c>
       <c r="C156">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D156">
         <v>0</v>
@@ -4914,13 +4914,13 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G156">
-        <v>5905</v>
+        <v>4700</v>
       </c>
       <c r="H156">
-        <v>4689</v>
+        <v>338</v>
       </c>
       <c r="I156">
         <v>1</v>
@@ -4931,10 +4931,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="2">
-        <v>45520</v>
+        <v>45888</v>
       </c>
       <c r="C157">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -4943,13 +4943,13 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G157">
-        <v>5943</v>
+        <v>4700</v>
       </c>
       <c r="H157">
-        <v>4719</v>
+        <v>338</v>
       </c>
       <c r="I157">
         <v>1</v>
@@ -4960,10 +4960,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="2">
-        <v>45523</v>
+        <v>45889</v>
       </c>
       <c r="C158">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -4972,13 +4972,13 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G158">
-        <v>5981</v>
+        <v>4884</v>
       </c>
       <c r="H158">
-        <v>4749</v>
+        <v>353</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -4989,10 +4989,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="2">
-        <v>45524</v>
+        <v>45890</v>
       </c>
       <c r="C159">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -5001,13 +5001,13 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G159">
-        <v>6019</v>
+        <v>4915</v>
       </c>
       <c r="H159">
-        <v>4779</v>
+        <v>356</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -5018,10 +5018,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="2">
-        <v>45525</v>
+        <v>45891</v>
       </c>
       <c r="C160">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -5030,13 +5030,13 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G160">
-        <v>6057</v>
+        <v>4946</v>
       </c>
       <c r="H160">
-        <v>4809</v>
+        <v>358</v>
       </c>
       <c r="I160">
         <v>1</v>
@@ -5047,10 +5047,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="2">
-        <v>45526</v>
+        <v>45895</v>
       </c>
       <c r="C161">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -5059,13 +5059,13 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G161">
-        <v>6095</v>
+        <v>4977</v>
       </c>
       <c r="H161">
-        <v>4839</v>
+        <v>360</v>
       </c>
       <c r="I161">
         <v>1</v>
@@ -5076,10 +5076,10 @@
         <v>160</v>
       </c>
       <c r="B162" s="2">
-        <v>45527</v>
+        <v>45896</v>
       </c>
       <c r="C162">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D162">
         <v>0</v>
@@ -5088,13 +5088,13 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G162">
-        <v>6133</v>
+        <v>5007</v>
       </c>
       <c r="H162">
-        <v>4869</v>
+        <v>362</v>
       </c>
       <c r="I162">
         <v>1</v>
@@ -5105,10 +5105,10 @@
         <v>161</v>
       </c>
       <c r="B163" s="2">
-        <v>45530</v>
+        <v>45897</v>
       </c>
       <c r="C163">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -5117,13 +5117,13 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G163">
-        <v>6171</v>
+        <v>5038</v>
       </c>
       <c r="H163">
-        <v>4899</v>
+        <v>364</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -5134,10 +5134,10 @@
         <v>162</v>
       </c>
       <c r="B164" s="2">
-        <v>45531</v>
+        <v>45898</v>
       </c>
       <c r="C164">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D164">
         <v>0</v>
@@ -5146,13 +5146,13 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G164">
-        <v>6210</v>
+        <v>5069</v>
       </c>
       <c r="H164">
-        <v>4929</v>
+        <v>366</v>
       </c>
       <c r="I164">
         <v>1</v>
@@ -5163,10 +5163,10 @@
         <v>163</v>
       </c>
       <c r="B165" s="2">
-        <v>45532</v>
+        <v>45901</v>
       </c>
       <c r="C165">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D165">
         <v>0</v>
@@ -5175,13 +5175,13 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G165">
-        <v>6248</v>
+        <v>5100</v>
       </c>
       <c r="H165">
-        <v>4959</v>
+        <v>368</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -5192,10 +5192,10 @@
         <v>164</v>
       </c>
       <c r="B166" s="2">
-        <v>45533</v>
+        <v>45902</v>
       </c>
       <c r="C166">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -5204,13 +5204,13 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G166">
-        <v>6286</v>
+        <v>5130</v>
       </c>
       <c r="H166">
-        <v>4989</v>
+        <v>370</v>
       </c>
       <c r="I166">
         <v>1</v>
@@ -5221,10 +5221,10 @@
         <v>165</v>
       </c>
       <c r="B167" s="2">
-        <v>45534</v>
+        <v>45903</v>
       </c>
       <c r="C167">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -5233,13 +5233,13 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G167">
-        <v>6324</v>
+        <v>5161</v>
       </c>
       <c r="H167">
-        <v>5019</v>
+        <v>372</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -5250,10 +5250,10 @@
         <v>166</v>
       </c>
       <c r="B168" s="2">
-        <v>45537</v>
+        <v>45904</v>
       </c>
       <c r="C168">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D168">
         <v>0</v>
@@ -5262,13 +5262,13 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G168">
-        <v>6362</v>
+        <v>5192</v>
       </c>
       <c r="H168">
-        <v>5049</v>
+        <v>374</v>
       </c>
       <c r="I168">
         <v>1</v>
@@ -5279,10 +5279,10 @@
         <v>167</v>
       </c>
       <c r="B169" s="2">
-        <v>45538</v>
+        <v>45905</v>
       </c>
       <c r="C169">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -5291,13 +5291,13 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G169">
-        <v>6400</v>
+        <v>5222</v>
       </c>
       <c r="H169">
-        <v>5079</v>
+        <v>376</v>
       </c>
       <c r="I169">
         <v>1</v>
@@ -5308,10 +5308,10 @@
         <v>168</v>
       </c>
       <c r="B170" s="2">
-        <v>45539</v>
+        <v>45908</v>
       </c>
       <c r="C170">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D170">
         <v>0</v>
@@ -5320,13 +5320,13 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G170">
-        <v>6438</v>
+        <v>5253</v>
       </c>
       <c r="H170">
-        <v>5109</v>
+        <v>378</v>
       </c>
       <c r="I170">
         <v>1</v>
@@ -5337,10 +5337,10 @@
         <v>169</v>
       </c>
       <c r="B171" s="2">
-        <v>45540</v>
+        <v>45909</v>
       </c>
       <c r="C171">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -5349,13 +5349,13 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G171">
-        <v>6476</v>
+        <v>5284</v>
       </c>
       <c r="H171">
-        <v>5139</v>
+        <v>380</v>
       </c>
       <c r="I171">
         <v>1</v>
@@ -5366,10 +5366,10 @@
         <v>170</v>
       </c>
       <c r="B172" s="2">
-        <v>45541</v>
+        <v>45910</v>
       </c>
       <c r="C172">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -5378,13 +5378,13 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G172">
-        <v>6514</v>
+        <v>5315</v>
       </c>
       <c r="H172">
-        <v>5169</v>
+        <v>382</v>
       </c>
       <c r="I172">
         <v>1</v>
@@ -5395,10 +5395,10 @@
         <v>171</v>
       </c>
       <c r="B173" s="2">
-        <v>45544</v>
+        <v>45911</v>
       </c>
       <c r="C173">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D173">
         <v>0</v>
@@ -5407,13 +5407,13 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G173">
-        <v>6552</v>
+        <v>5315</v>
       </c>
       <c r="H173">
-        <v>5199</v>
+        <v>382</v>
       </c>
       <c r="I173">
         <v>1</v>
@@ -5424,7 +5424,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="2">
-        <v>45545</v>
+        <v>45912</v>
       </c>
       <c r="C174">
         <v>173</v>
@@ -5436,13 +5436,13 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G174">
-        <v>6590</v>
+        <v>5315</v>
       </c>
       <c r="H174">
-        <v>5229</v>
+        <v>382</v>
       </c>
       <c r="I174">
         <v>1</v>
@@ -5453,10 +5453,10 @@
         <v>173</v>
       </c>
       <c r="B175" s="2">
-        <v>45546</v>
+        <v>45915</v>
       </c>
       <c r="C175">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -5465,13 +5465,13 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G175">
-        <v>6629</v>
+        <v>5315</v>
       </c>
       <c r="H175">
-        <v>5259</v>
+        <v>382</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -5482,10 +5482,10 @@
         <v>174</v>
       </c>
       <c r="B176" s="2">
-        <v>45547</v>
+        <v>45916</v>
       </c>
       <c r="C176">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -5494,13 +5494,13 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G176">
-        <v>6667</v>
+        <v>5315</v>
       </c>
       <c r="H176">
-        <v>5289</v>
+        <v>382</v>
       </c>
       <c r="I176">
         <v>1</v>
@@ -5511,10 +5511,10 @@
         <v>175</v>
       </c>
       <c r="B177" s="2">
-        <v>45548</v>
+        <v>45917</v>
       </c>
       <c r="C177">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -5523,13 +5523,13 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G177">
-        <v>6705</v>
+        <v>5315</v>
       </c>
       <c r="H177">
-        <v>5319</v>
+        <v>382</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -5540,10 +5540,10 @@
         <v>176</v>
       </c>
       <c r="B178" s="2">
-        <v>45551</v>
+        <v>45918</v>
       </c>
       <c r="C178">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -5552,13 +5552,13 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G178">
-        <v>6743</v>
+        <v>5499</v>
       </c>
       <c r="H178">
-        <v>5349</v>
+        <v>397</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -5569,10 +5569,10 @@
         <v>177</v>
       </c>
       <c r="B179" s="2">
-        <v>45552</v>
+        <v>45919</v>
       </c>
       <c r="C179">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -5581,13 +5581,13 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G179">
-        <v>6781</v>
+        <v>5530</v>
       </c>
       <c r="H179">
-        <v>5379</v>
+        <v>400</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -5598,10 +5598,10 @@
         <v>178</v>
       </c>
       <c r="B180" s="2">
-        <v>45553</v>
+        <v>45922</v>
       </c>
       <c r="C180">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -5610,13 +5610,13 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G180">
-        <v>6819</v>
+        <v>5560</v>
       </c>
       <c r="H180">
-        <v>5409</v>
+        <v>402</v>
       </c>
       <c r="I180">
         <v>1</v>
@@ -5627,10 +5627,10 @@
         <v>179</v>
       </c>
       <c r="B181" s="2">
-        <v>45554</v>
+        <v>45923</v>
       </c>
       <c r="C181">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -5639,13 +5639,13 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G181">
-        <v>6857</v>
+        <v>5591</v>
       </c>
       <c r="H181">
-        <v>5439</v>
+        <v>404</v>
       </c>
       <c r="I181">
         <v>1</v>
@@ -5656,10 +5656,10 @@
         <v>180</v>
       </c>
       <c r="B182" s="2">
-        <v>45555</v>
+        <v>45924</v>
       </c>
       <c r="C182">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -5668,13 +5668,13 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G182">
-        <v>6895</v>
+        <v>5622</v>
       </c>
       <c r="H182">
-        <v>5469</v>
+        <v>406</v>
       </c>
       <c r="I182">
         <v>1</v>
@@ -5685,10 +5685,10 @@
         <v>181</v>
       </c>
       <c r="B183" s="2">
-        <v>45558</v>
+        <v>45925</v>
       </c>
       <c r="C183">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -5697,13 +5697,13 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G183">
-        <v>6933</v>
+        <v>5652</v>
       </c>
       <c r="H183">
-        <v>5499</v>
+        <v>408</v>
       </c>
       <c r="I183">
         <v>1</v>
@@ -5714,10 +5714,10 @@
         <v>182</v>
       </c>
       <c r="B184" s="2">
-        <v>45559</v>
+        <v>45926</v>
       </c>
       <c r="C184">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -5726,13 +5726,13 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G184">
-        <v>6971</v>
+        <v>5683</v>
       </c>
       <c r="H184">
-        <v>5529</v>
+        <v>410</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -5743,10 +5743,10 @@
         <v>183</v>
       </c>
       <c r="B185" s="2">
-        <v>45560</v>
+        <v>45929</v>
       </c>
       <c r="C185">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -5755,13 +5755,13 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G185">
-        <v>7010</v>
+        <v>5714</v>
       </c>
       <c r="H185">
-        <v>5559</v>
+        <v>412</v>
       </c>
       <c r="I185">
         <v>1</v>
@@ -5772,10 +5772,10 @@
         <v>184</v>
       </c>
       <c r="B186" s="2">
-        <v>45561</v>
+        <v>45930</v>
       </c>
       <c r="C186">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -5784,13 +5784,13 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G186">
-        <v>7048</v>
+        <v>5745</v>
       </c>
       <c r="H186">
-        <v>5589</v>
+        <v>414</v>
       </c>
       <c r="I186">
         <v>1</v>
@@ -5801,10 +5801,10 @@
         <v>185</v>
       </c>
       <c r="B187" s="2">
-        <v>45562</v>
+        <v>45931</v>
       </c>
       <c r="C187">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -5813,13 +5813,13 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G187">
-        <v>7086</v>
+        <v>5775</v>
       </c>
       <c r="H187">
-        <v>5619</v>
+        <v>416</v>
       </c>
       <c r="I187">
         <v>1</v>
@@ -5830,10 +5830,10 @@
         <v>186</v>
       </c>
       <c r="B188" s="2">
-        <v>45565</v>
+        <v>45932</v>
       </c>
       <c r="C188">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -5842,13 +5842,13 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G188">
-        <v>7124</v>
+        <v>5806</v>
       </c>
       <c r="H188">
-        <v>5649</v>
+        <v>418</v>
       </c>
       <c r="I188">
         <v>1</v>
@@ -5859,10 +5859,10 @@
         <v>187</v>
       </c>
       <c r="B189" s="2">
-        <v>45566</v>
+        <v>45933</v>
       </c>
       <c r="C189">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -5871,13 +5871,13 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G189">
-        <v>7162</v>
+        <v>5837</v>
       </c>
       <c r="H189">
-        <v>5679</v>
+        <v>420</v>
       </c>
       <c r="I189">
         <v>1</v>
@@ -5888,10 +5888,10 @@
         <v>188</v>
       </c>
       <c r="B190" s="2">
-        <v>45567</v>
+        <v>45936</v>
       </c>
       <c r="C190">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -5900,13 +5900,13 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G190">
-        <v>7200</v>
+        <v>5868</v>
       </c>
       <c r="H190">
-        <v>5709</v>
+        <v>422</v>
       </c>
       <c r="I190">
         <v>1</v>
@@ -5917,10 +5917,10 @@
         <v>189</v>
       </c>
       <c r="B191" s="2">
-        <v>45568</v>
+        <v>45937</v>
       </c>
       <c r="C191">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D191">
         <v>0</v>
@@ -5929,13 +5929,13 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G191">
-        <v>7238</v>
+        <v>5898</v>
       </c>
       <c r="H191">
-        <v>5739</v>
+        <v>424</v>
       </c>
       <c r="I191">
         <v>1</v>
@@ -5946,10 +5946,10 @@
         <v>190</v>
       </c>
       <c r="B192" s="2">
-        <v>45569</v>
+        <v>45938</v>
       </c>
       <c r="C192">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -5958,13 +5958,13 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G192">
-        <v>7276</v>
+        <v>5929</v>
       </c>
       <c r="H192">
-        <v>5769</v>
+        <v>426</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -5975,10 +5975,10 @@
         <v>191</v>
       </c>
       <c r="B193" s="2">
-        <v>45572</v>
+        <v>45939</v>
       </c>
       <c r="C193">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -5987,13 +5987,13 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G193">
-        <v>7314</v>
+        <v>5960</v>
       </c>
       <c r="H193">
-        <v>5799</v>
+        <v>428</v>
       </c>
       <c r="I193">
         <v>1</v>
@@ -6004,10 +6004,10 @@
         <v>192</v>
       </c>
       <c r="B194" s="2">
-        <v>45573</v>
+        <v>45940</v>
       </c>
       <c r="C194">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -6016,13 +6016,13 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G194">
-        <v>7352</v>
+        <v>5990</v>
       </c>
       <c r="H194">
-        <v>5829</v>
+        <v>430</v>
       </c>
       <c r="I194">
         <v>1</v>
@@ -6033,10 +6033,10 @@
         <v>193</v>
       </c>
       <c r="B195" s="2">
-        <v>45574</v>
+        <v>45943</v>
       </c>
       <c r="C195">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -6045,13 +6045,13 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G195">
-        <v>7390</v>
+        <v>5990</v>
       </c>
       <c r="H195">
-        <v>5859</v>
+        <v>430</v>
       </c>
       <c r="I195">
         <v>1</v>
@@ -6062,7 +6062,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="2">
-        <v>45575</v>
+        <v>45944</v>
       </c>
       <c r="C196">
         <v>195</v>
@@ -6074,13 +6074,13 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G196">
-        <v>7429</v>
+        <v>5990</v>
       </c>
       <c r="H196">
-        <v>5889</v>
+        <v>430</v>
       </c>
       <c r="I196">
         <v>1</v>
@@ -6091,10 +6091,10 @@
         <v>195</v>
       </c>
       <c r="B197" s="2">
-        <v>45576</v>
+        <v>45945</v>
       </c>
       <c r="C197">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -6103,13 +6103,13 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G197">
-        <v>7467</v>
+        <v>5990</v>
       </c>
       <c r="H197">
-        <v>5919</v>
+        <v>430</v>
       </c>
       <c r="I197">
         <v>1</v>
@@ -6120,10 +6120,10 @@
         <v>196</v>
       </c>
       <c r="B198" s="2">
-        <v>45579</v>
+        <v>45946</v>
       </c>
       <c r="C198">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -6132,13 +6132,13 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G198">
-        <v>7505</v>
+        <v>5990</v>
       </c>
       <c r="H198">
-        <v>5949</v>
+        <v>430</v>
       </c>
       <c r="I198">
         <v>1</v>
@@ -6149,10 +6149,10 @@
         <v>197</v>
       </c>
       <c r="B199" s="2">
-        <v>45580</v>
+        <v>45947</v>
       </c>
       <c r="C199">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -6161,13 +6161,13 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G199">
-        <v>7543</v>
+        <v>5990</v>
       </c>
       <c r="H199">
-        <v>5979</v>
+        <v>430</v>
       </c>
       <c r="I199">
         <v>1</v>
@@ -6178,10 +6178,10 @@
         <v>198</v>
       </c>
       <c r="B200" s="2">
-        <v>45581</v>
+        <v>45950</v>
       </c>
       <c r="C200">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -6190,13 +6190,13 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G200">
-        <v>7581</v>
+        <v>6175</v>
       </c>
       <c r="H200">
-        <v>6009</v>
+        <v>445</v>
       </c>
       <c r="I200">
         <v>1</v>
@@ -6207,10 +6207,10 @@
         <v>199</v>
       </c>
       <c r="B201" s="2">
-        <v>45582</v>
+        <v>45951</v>
       </c>
       <c r="C201">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -6219,13 +6219,13 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G201">
-        <v>7619</v>
+        <v>6205</v>
       </c>
       <c r="H201">
-        <v>6039</v>
+        <v>448</v>
       </c>
       <c r="I201">
         <v>1</v>
@@ -6236,10 +6236,10 @@
         <v>200</v>
       </c>
       <c r="B202" s="2">
-        <v>45583</v>
+        <v>45952</v>
       </c>
       <c r="C202">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -6248,13 +6248,13 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G202">
-        <v>7657</v>
+        <v>6236</v>
       </c>
       <c r="H202">
-        <v>6069</v>
+        <v>450</v>
       </c>
       <c r="I202">
         <v>1</v>
@@ -6265,10 +6265,10 @@
         <v>201</v>
       </c>
       <c r="B203" s="2">
-        <v>45586</v>
+        <v>45953</v>
       </c>
       <c r="C203">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -6277,13 +6277,13 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G203">
-        <v>7695</v>
+        <v>6267</v>
       </c>
       <c r="H203">
-        <v>6099</v>
+        <v>452</v>
       </c>
       <c r="I203">
         <v>1</v>
@@ -6294,10 +6294,10 @@
         <v>202</v>
       </c>
       <c r="B204" s="2">
-        <v>45587</v>
+        <v>45954</v>
       </c>
       <c r="C204">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -6306,13 +6306,13 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G204">
-        <v>7733</v>
+        <v>6298</v>
       </c>
       <c r="H204">
-        <v>6129</v>
+        <v>454</v>
       </c>
       <c r="I204">
         <v>1</v>
@@ -6323,10 +6323,10 @@
         <v>203</v>
       </c>
       <c r="B205" s="2">
-        <v>45588</v>
+        <v>45957</v>
       </c>
       <c r="C205">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -6335,13 +6335,13 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G205">
-        <v>7771</v>
+        <v>6328</v>
       </c>
       <c r="H205">
-        <v>6159</v>
+        <v>456</v>
       </c>
       <c r="I205">
         <v>1</v>
@@ -6352,10 +6352,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="2">
-        <v>45589</v>
+        <v>45958</v>
       </c>
       <c r="C206">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -6364,13 +6364,13 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G206">
-        <v>7810</v>
+        <v>6359</v>
       </c>
       <c r="H206">
-        <v>6189</v>
+        <v>458</v>
       </c>
       <c r="I206">
         <v>1</v>
@@ -6381,10 +6381,10 @@
         <v>205</v>
       </c>
       <c r="B207" s="2">
-        <v>45590</v>
+        <v>45959</v>
       </c>
       <c r="C207">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -6393,13 +6393,13 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G207">
-        <v>7848</v>
+        <v>6390</v>
       </c>
       <c r="H207">
-        <v>6219</v>
+        <v>460</v>
       </c>
       <c r="I207">
         <v>1</v>
@@ -6410,10 +6410,10 @@
         <v>206</v>
       </c>
       <c r="B208" s="2">
-        <v>45593</v>
+        <v>45960</v>
       </c>
       <c r="C208">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -6422,13 +6422,13 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G208">
-        <v>7886</v>
+        <v>6420</v>
       </c>
       <c r="H208">
-        <v>6249</v>
+        <v>462</v>
       </c>
       <c r="I208">
         <v>1</v>
@@ -6439,10 +6439,10 @@
         <v>207</v>
       </c>
       <c r="B209" s="2">
-        <v>45594</v>
+        <v>45961</v>
       </c>
       <c r="C209">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -6451,13 +6451,13 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G209">
-        <v>7924</v>
+        <v>6451</v>
       </c>
       <c r="H209">
-        <v>6279</v>
+        <v>464</v>
       </c>
       <c r="I209">
         <v>1</v>
@@ -6468,10 +6468,10 @@
         <v>208</v>
       </c>
       <c r="B210" s="2">
-        <v>45595</v>
+        <v>45964</v>
       </c>
       <c r="C210">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -6480,13 +6480,13 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G210">
-        <v>7962</v>
+        <v>6482</v>
       </c>
       <c r="H210">
-        <v>6309</v>
+        <v>466</v>
       </c>
       <c r="I210">
         <v>1</v>
@@ -6497,10 +6497,10 @@
         <v>209</v>
       </c>
       <c r="B211" s="2">
-        <v>45596</v>
+        <v>45965</v>
       </c>
       <c r="C211">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D211">
         <v>0</v>
@@ -6509,13 +6509,13 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G211">
-        <v>8000</v>
+        <v>6513</v>
       </c>
       <c r="H211">
-        <v>6339</v>
+        <v>468</v>
       </c>
       <c r="I211">
         <v>1</v>
@@ -6526,10 +6526,10 @@
         <v>210</v>
       </c>
       <c r="B212" s="2">
-        <v>45597</v>
+        <v>45966</v>
       </c>
       <c r="C212">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D212">
         <v>0</v>
@@ -6538,13 +6538,13 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G212">
-        <v>8038</v>
+        <v>6543</v>
       </c>
       <c r="H212">
-        <v>6369</v>
+        <v>470</v>
       </c>
       <c r="I212">
         <v>1</v>
@@ -6555,10 +6555,10 @@
         <v>211</v>
       </c>
       <c r="B213" s="2">
-        <v>45600</v>
+        <v>45967</v>
       </c>
       <c r="C213">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -6567,13 +6567,13 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G213">
-        <v>8076</v>
+        <v>6574</v>
       </c>
       <c r="H213">
-        <v>6399</v>
+        <v>472</v>
       </c>
       <c r="I213">
         <v>1</v>
@@ -6584,10 +6584,10 @@
         <v>212</v>
       </c>
       <c r="B214" s="2">
-        <v>45601</v>
+        <v>45968</v>
       </c>
       <c r="C214">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -6596,13 +6596,13 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G214">
-        <v>8114</v>
+        <v>6605</v>
       </c>
       <c r="H214">
-        <v>6429</v>
+        <v>474</v>
       </c>
       <c r="I214">
         <v>1</v>
@@ -6613,10 +6613,10 @@
         <v>213</v>
       </c>
       <c r="B215" s="2">
-        <v>45602</v>
+        <v>45971</v>
       </c>
       <c r="C215">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -6625,13 +6625,13 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G215">
-        <v>8152</v>
+        <v>6636</v>
       </c>
       <c r="H215">
-        <v>6459</v>
+        <v>476</v>
       </c>
       <c r="I215">
         <v>1</v>
@@ -6642,10 +6642,10 @@
         <v>214</v>
       </c>
       <c r="B216" s="2">
-        <v>45603</v>
+        <v>45972</v>
       </c>
       <c r="C216">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D216">
         <v>0</v>
@@ -6654,13 +6654,13 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G216">
-        <v>8190</v>
+        <v>6666</v>
       </c>
       <c r="H216">
-        <v>6489</v>
+        <v>478</v>
       </c>
       <c r="I216">
         <v>1</v>
@@ -6671,10 +6671,10 @@
         <v>215</v>
       </c>
       <c r="B217" s="2">
-        <v>45604</v>
+        <v>45973</v>
       </c>
       <c r="C217">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -6683,13 +6683,13 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G217">
-        <v>8229</v>
+        <v>6697</v>
       </c>
       <c r="H217">
-        <v>6519</v>
+        <v>480</v>
       </c>
       <c r="I217">
         <v>1</v>
@@ -6700,10 +6700,10 @@
         <v>216</v>
       </c>
       <c r="B218" s="2">
-        <v>45607</v>
+        <v>45974</v>
       </c>
       <c r="C218">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D218">
         <v>0</v>
@@ -6712,13 +6712,13 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G218">
-        <v>8267</v>
+        <v>6697</v>
       </c>
       <c r="H218">
-        <v>6549</v>
+        <v>480</v>
       </c>
       <c r="I218">
         <v>1</v>
@@ -6729,7 +6729,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="2">
-        <v>45608</v>
+        <v>45975</v>
       </c>
       <c r="C219">
         <v>218</v>
@@ -6741,13 +6741,13 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G219">
-        <v>8305</v>
+        <v>6697</v>
       </c>
       <c r="H219">
-        <v>6579</v>
+        <v>480</v>
       </c>
       <c r="I219">
         <v>1</v>
@@ -6758,10 +6758,10 @@
         <v>218</v>
       </c>
       <c r="B220" s="2">
-        <v>45609</v>
+        <v>45978</v>
       </c>
       <c r="C220">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D220">
         <v>0</v>
@@ -6770,13 +6770,13 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G220">
-        <v>8343</v>
+        <v>6697</v>
       </c>
       <c r="H220">
-        <v>6609</v>
+        <v>480</v>
       </c>
       <c r="I220">
         <v>1</v>
@@ -6787,10 +6787,10 @@
         <v>219</v>
       </c>
       <c r="B221" s="2">
-        <v>45610</v>
+        <v>45979</v>
       </c>
       <c r="C221">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -6799,13 +6799,13 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G221">
-        <v>8381</v>
+        <v>6697</v>
       </c>
       <c r="H221">
-        <v>6639</v>
+        <v>480</v>
       </c>
       <c r="I221">
         <v>1</v>
@@ -6816,10 +6816,10 @@
         <v>220</v>
       </c>
       <c r="B222" s="2">
-        <v>45611</v>
+        <v>45980</v>
       </c>
       <c r="C222">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -6828,13 +6828,13 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G222">
-        <v>8419</v>
+        <v>6697</v>
       </c>
       <c r="H222">
-        <v>6669</v>
+        <v>480</v>
       </c>
       <c r="I222">
         <v>1</v>
@@ -6845,10 +6845,10 @@
         <v>221</v>
       </c>
       <c r="B223" s="2">
-        <v>45614</v>
+        <v>45981</v>
       </c>
       <c r="C223">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -6857,13 +6857,13 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G223">
-        <v>8457</v>
+        <v>6881</v>
       </c>
       <c r="H223">
-        <v>6699</v>
+        <v>495</v>
       </c>
       <c r="I223">
         <v>1</v>
@@ -6874,10 +6874,10 @@
         <v>222</v>
       </c>
       <c r="B224" s="2">
-        <v>45615</v>
+        <v>45982</v>
       </c>
       <c r="C224">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -6886,13 +6886,13 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G224">
-        <v>8495</v>
+        <v>6912</v>
       </c>
       <c r="H224">
-        <v>6729</v>
+        <v>498</v>
       </c>
       <c r="I224">
         <v>1</v>
@@ -6903,10 +6903,10 @@
         <v>223</v>
       </c>
       <c r="B225" s="2">
-        <v>45616</v>
+        <v>45985</v>
       </c>
       <c r="C225">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -6915,13 +6915,13 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G225">
-        <v>8533</v>
+        <v>6943</v>
       </c>
       <c r="H225">
-        <v>6759</v>
+        <v>500</v>
       </c>
       <c r="I225">
         <v>1</v>
@@ -6932,10 +6932,10 @@
         <v>224</v>
       </c>
       <c r="B226" s="2">
-        <v>45617</v>
+        <v>45986</v>
       </c>
       <c r="C226">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -6944,13 +6944,13 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G226">
-        <v>8571</v>
+        <v>6973</v>
       </c>
       <c r="H226">
-        <v>6789</v>
+        <v>502</v>
       </c>
       <c r="I226">
         <v>1</v>
@@ -6961,10 +6961,10 @@
         <v>225</v>
       </c>
       <c r="B227" s="2">
-        <v>45618</v>
+        <v>45987</v>
       </c>
       <c r="C227">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -6973,13 +6973,13 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G227">
-        <v>8610</v>
+        <v>7004</v>
       </c>
       <c r="H227">
-        <v>6819</v>
+        <v>504</v>
       </c>
       <c r="I227">
         <v>1</v>
@@ -6990,10 +6990,10 @@
         <v>226</v>
       </c>
       <c r="B228" s="2">
-        <v>45621</v>
+        <v>45988</v>
       </c>
       <c r="C228">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -7002,13 +7002,13 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G228">
-        <v>8648</v>
+        <v>7035</v>
       </c>
       <c r="H228">
-        <v>6849</v>
+        <v>506</v>
       </c>
       <c r="I228">
         <v>1</v>
@@ -7019,10 +7019,10 @@
         <v>227</v>
       </c>
       <c r="B229" s="2">
-        <v>45622</v>
+        <v>45989</v>
       </c>
       <c r="C229">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D229">
         <v>0</v>
@@ -7031,13 +7031,13 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G229">
-        <v>8686</v>
+        <v>7066</v>
       </c>
       <c r="H229">
-        <v>6879</v>
+        <v>508</v>
       </c>
       <c r="I229">
         <v>1</v>
@@ -7048,10 +7048,10 @@
         <v>228</v>
       </c>
       <c r="B230" s="2">
-        <v>45623</v>
+        <v>45992</v>
       </c>
       <c r="C230">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -7060,13 +7060,13 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G230">
-        <v>8724</v>
+        <v>7096</v>
       </c>
       <c r="H230">
-        <v>6909</v>
+        <v>510</v>
       </c>
       <c r="I230">
         <v>1</v>
@@ -7077,10 +7077,10 @@
         <v>229</v>
       </c>
       <c r="B231" s="2">
-        <v>45624</v>
+        <v>45993</v>
       </c>
       <c r="C231">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -7089,13 +7089,13 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G231">
-        <v>8762</v>
+        <v>7127</v>
       </c>
       <c r="H231">
-        <v>6939</v>
+        <v>512</v>
       </c>
       <c r="I231">
         <v>1</v>
@@ -7106,10 +7106,10 @@
         <v>230</v>
       </c>
       <c r="B232" s="2">
-        <v>45625</v>
+        <v>45994</v>
       </c>
       <c r="C232">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -7118,13 +7118,13 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G232">
-        <v>8800</v>
+        <v>7158</v>
       </c>
       <c r="H232">
-        <v>6969</v>
+        <v>514</v>
       </c>
       <c r="I232">
         <v>1</v>
@@ -7135,10 +7135,10 @@
         <v>231</v>
       </c>
       <c r="B233" s="2">
-        <v>45628</v>
+        <v>45995</v>
       </c>
       <c r="C233">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -7147,13 +7147,13 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G233">
-        <v>8838</v>
+        <v>7188</v>
       </c>
       <c r="H233">
-        <v>6999</v>
+        <v>516</v>
       </c>
       <c r="I233">
         <v>1</v>
@@ -7164,10 +7164,10 @@
         <v>232</v>
       </c>
       <c r="B234" s="2">
-        <v>45629</v>
+        <v>45996</v>
       </c>
       <c r="C234">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -7176,13 +7176,13 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G234">
-        <v>8876</v>
+        <v>7219</v>
       </c>
       <c r="H234">
-        <v>7029</v>
+        <v>518</v>
       </c>
       <c r="I234">
         <v>1</v>
@@ -7193,10 +7193,10 @@
         <v>233</v>
       </c>
       <c r="B235" s="2">
-        <v>45630</v>
+        <v>45999</v>
       </c>
       <c r="C235">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -7205,13 +7205,13 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G235">
-        <v>8914</v>
+        <v>7250</v>
       </c>
       <c r="H235">
-        <v>7059</v>
+        <v>520</v>
       </c>
       <c r="I235">
         <v>1</v>
@@ -7222,10 +7222,10 @@
         <v>234</v>
       </c>
       <c r="B236" s="2">
-        <v>45631</v>
+        <v>46000</v>
       </c>
       <c r="C236">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -7234,13 +7234,13 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G236">
-        <v>8952</v>
+        <v>7281</v>
       </c>
       <c r="H236">
-        <v>7089</v>
+        <v>522</v>
       </c>
       <c r="I236">
         <v>1</v>
@@ -7251,10 +7251,10 @@
         <v>235</v>
       </c>
       <c r="B237" s="2">
-        <v>45632</v>
+        <v>46001</v>
       </c>
       <c r="C237">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -7263,13 +7263,13 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G237">
-        <v>8990</v>
+        <v>7311</v>
       </c>
       <c r="H237">
-        <v>7119</v>
+        <v>524</v>
       </c>
       <c r="I237">
         <v>1</v>
@@ -7280,10 +7280,10 @@
         <v>236</v>
       </c>
       <c r="B238" s="2">
-        <v>45635</v>
+        <v>46002</v>
       </c>
       <c r="C238">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -7292,13 +7292,13 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G238">
-        <v>9029</v>
+        <v>7311</v>
       </c>
       <c r="H238">
-        <v>7149</v>
+        <v>524</v>
       </c>
       <c r="I238">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="2">
-        <v>45636</v>
+        <v>46003</v>
       </c>
       <c r="C239">
         <v>238</v>
@@ -7321,13 +7321,13 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G239">
-        <v>9067</v>
+        <v>7311</v>
       </c>
       <c r="H239">
-        <v>7179</v>
+        <v>524</v>
       </c>
       <c r="I239">
         <v>1</v>
@@ -7338,10 +7338,10 @@
         <v>238</v>
       </c>
       <c r="B240" s="2">
-        <v>45637</v>
+        <v>46006</v>
       </c>
       <c r="C240">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -7350,13 +7350,13 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G240">
-        <v>9105</v>
+        <v>7311</v>
       </c>
       <c r="H240">
-        <v>7209</v>
+        <v>524</v>
       </c>
       <c r="I240">
         <v>1</v>
@@ -7367,10 +7367,10 @@
         <v>239</v>
       </c>
       <c r="B241" s="2">
-        <v>45638</v>
+        <v>46007</v>
       </c>
       <c r="C241">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -7379,13 +7379,13 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G241">
-        <v>9143</v>
+        <v>7311</v>
       </c>
       <c r="H241">
-        <v>7239</v>
+        <v>524</v>
       </c>
       <c r="I241">
         <v>1</v>
@@ -7396,10 +7396,10 @@
         <v>240</v>
       </c>
       <c r="B242" s="2">
-        <v>45639</v>
+        <v>46008</v>
       </c>
       <c r="C242">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -7408,13 +7408,13 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G242">
-        <v>9181</v>
+        <v>7311</v>
       </c>
       <c r="H242">
-        <v>7269</v>
+        <v>524</v>
       </c>
       <c r="I242">
         <v>1</v>
@@ -7425,10 +7425,10 @@
         <v>241</v>
       </c>
       <c r="B243" s="2">
-        <v>45642</v>
+        <v>46009</v>
       </c>
       <c r="C243">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -7437,13 +7437,13 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G243">
-        <v>9219</v>
+        <v>7496</v>
       </c>
       <c r="H243">
-        <v>7299</v>
+        <v>539</v>
       </c>
       <c r="I243">
         <v>1</v>
@@ -7454,10 +7454,10 @@
         <v>242</v>
       </c>
       <c r="B244" s="2">
-        <v>45643</v>
+        <v>46010</v>
       </c>
       <c r="C244">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -7466,13 +7466,13 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G244">
-        <v>9257</v>
+        <v>7526</v>
       </c>
       <c r="H244">
-        <v>7329</v>
+        <v>542</v>
       </c>
       <c r="I244">
         <v>1</v>
@@ -7483,10 +7483,10 @@
         <v>243</v>
       </c>
       <c r="B245" s="2">
-        <v>45644</v>
+        <v>46013</v>
       </c>
       <c r="C245">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -7495,13 +7495,13 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G245">
-        <v>9295</v>
+        <v>7557</v>
       </c>
       <c r="H245">
-        <v>7359</v>
+        <v>544</v>
       </c>
       <c r="I245">
         <v>1</v>
@@ -7512,10 +7512,10 @@
         <v>244</v>
       </c>
       <c r="B246" s="2">
-        <v>45645</v>
+        <v>46014</v>
       </c>
       <c r="C246">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -7524,13 +7524,13 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G246">
-        <v>9333</v>
+        <v>7588</v>
       </c>
       <c r="H246">
-        <v>7389</v>
+        <v>546</v>
       </c>
       <c r="I246">
         <v>1</v>
@@ -7541,10 +7541,10 @@
         <v>245</v>
       </c>
       <c r="B247" s="2">
-        <v>45646</v>
+        <v>46015</v>
       </c>
       <c r="C247">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -7553,13 +7553,13 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G247">
-        <v>9371</v>
+        <v>7619</v>
       </c>
       <c r="H247">
-        <v>7419</v>
+        <v>548</v>
       </c>
       <c r="I247">
         <v>1</v>
@@ -7570,10 +7570,10 @@
         <v>246</v>
       </c>
       <c r="B248" s="2">
-        <v>45649</v>
+        <v>46017</v>
       </c>
       <c r="C248">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -7582,13 +7582,13 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G248">
-        <v>9410</v>
+        <v>7649</v>
       </c>
       <c r="H248">
-        <v>7449</v>
+        <v>550</v>
       </c>
       <c r="I248">
         <v>1</v>
@@ -7599,10 +7599,10 @@
         <v>247</v>
       </c>
       <c r="B249" s="2">
-        <v>45650</v>
+        <v>46020</v>
       </c>
       <c r="C249">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -7611,13 +7611,13 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G249">
-        <v>9448</v>
+        <v>7680</v>
       </c>
       <c r="H249">
-        <v>7479</v>
+        <v>552</v>
       </c>
       <c r="I249">
         <v>1</v>
@@ -7628,10 +7628,10 @@
         <v>248</v>
       </c>
       <c r="B250" s="2">
-        <v>45652</v>
+        <v>46021</v>
       </c>
       <c r="C250">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -7640,13 +7640,13 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G250">
-        <v>9486</v>
+        <v>7711</v>
       </c>
       <c r="H250">
-        <v>7509</v>
+        <v>554</v>
       </c>
       <c r="I250">
         <v>1</v>
@@ -7657,10 +7657,10 @@
         <v>249</v>
       </c>
       <c r="B251" s="2">
-        <v>45653</v>
+        <v>46022</v>
       </c>
       <c r="C251">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -7669,73 +7669,15 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>4539</v>
+        <v>5</v>
       </c>
       <c r="G251">
-        <v>9524</v>
+        <v>7741</v>
       </c>
       <c r="H251">
-        <v>7539</v>
+        <v>556</v>
       </c>
       <c r="I251">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252" s="2">
-        <v>45656</v>
-      </c>
-      <c r="C252">
-        <v>251</v>
-      </c>
-      <c r="D252">
-        <v>0</v>
-      </c>
-      <c r="E252">
-        <v>0</v>
-      </c>
-      <c r="F252">
-        <v>4539</v>
-      </c>
-      <c r="G252">
-        <v>9562</v>
-      </c>
-      <c r="H252">
-        <v>7569</v>
-      </c>
-      <c r="I252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253" s="2">
-        <v>45657</v>
-      </c>
-      <c r="C253">
-        <v>252</v>
-      </c>
-      <c r="D253">
-        <v>0</v>
-      </c>
-      <c r="E253">
-        <v>0</v>
-      </c>
-      <c r="F253">
-        <v>4539</v>
-      </c>
-      <c r="G253">
-        <v>9600</v>
-      </c>
-      <c r="H253">
-        <v>7599</v>
-      </c>
-      <c r="I253">
         <v>1</v>
       </c>
     </row>
